--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -4,13 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23260" windowHeight="13620" tabRatio="860" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目梳理20150708" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="问题与任务" sheetId="16" r:id="rId2"/>
-    <sheet name="问题说明" sheetId="17" r:id="rId3"/>
-    <sheet name="附注" sheetId="9" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">问题与任务!$A$1:$I$2</definedName>
@@ -25,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
   <si>
     <t>类型</t>
   </si>
@@ -467,10 +465,6 @@
     <t>问题描述</t>
   </si>
   <si>
-    <t>返回</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>优先级</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -495,232 +489,142 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>页面闪退问题</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵日朋</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>开始时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>结束时间</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>工时</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟文问题</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>取回、回退功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>领导意见</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建公文开发</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>待开发,功能按钮已添加</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>未开始</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>同时测试页面闪退问题</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/2  PM 16:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/2  AM 11:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/4  PM 16:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已了解功能，具体实现发现问题，待询问。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改问题（领导意见页面逻辑完全按照廊坊规划修改），同时包含我这边问题（无数据点击页面闪退），故工时2.5小时，实际3.5小时</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已修改完毕（对比安卓领导意见功能，完成修改问题）</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/4  PM 13:00:01</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/4  PM 17:00:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/4  PM 20:30:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>IOS版本更新开发</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵日朋</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/6  PM 18:00:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>2.6.3</t>
+      <t>1)“我的”-&gt;“关于”页面，具体见</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
+        <sz val="11"/>
+        <color theme="3" tint="0.39997558519241921"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>说明：</t>
-    </r>
-  </si>
-  <si>
-    <t>消息提示去除公文、审批个数，app外面的角标数=公文（角标数）+审批（角标数）+消息提示（角标数）+通知公告（角标数）+会议安排（角标数）</t>
-  </si>
-  <si>
-    <r>
-      <t>2.10</t>
+      <t xml:space="preserve">附注201806051048
+</t>
     </r>
     <r>
       <rPr>
-        <b/>
-        <sz val="12"/>
-        <color indexed="8"/>
+        <sz val="11"/>
+        <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>说明：</t>
+      <t>2)首页2)本人查询、本局查询，更改图标；</t>
     </r>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、通知公告</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）加喇叭图片（默认主题色），紧急件为红色喇叭；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                       2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）标题黑色，字体大小参考新闻标题；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                       3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）内容字体大小参考新闻内容；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、会议安排</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）列表加图标，图标取九宫格会议图标去宝盖头；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                        3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）内容字体大小参考新闻内容；</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">  </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>3</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>、资料查询</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> 1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>图标颜色换成主题色；</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                       2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="9"/>
-        <color indexed="8"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>）发行机关为一行，发行日期另起一行；</t>
-    </r>
-  </si>
-  <si>
-    <t>页面闪退问题</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
@@ -728,87 +632,47 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>开始时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>结束时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>工时</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>拟文问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>取回、回退功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导意见</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建公文开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>待开发,功能按钮已添加</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>已了解功能，具体实现发现问题，待询问。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>未开始</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>同时测试页面闪退问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/2  PM 16:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/2  AM 11:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>已修改完毕</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/4  AM 13:00:01</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/4  PM 16:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/2  AM 20:30:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/4  AM 17:00:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改问题，同时包含我这边问题，故工时2.5小时，实际3.5小时</t>
+    <t>拟文缓存问题修改</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/6  PM 18:40:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/6  PM 18:10:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击消息提示  无法打开案卷  且消息消失</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成关于页面+更换图标+更新</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/7  AM 10:30:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/7  AM 11:00:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/7  AM 9:00:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/7  AM 10:30:02</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>拟文清楚缓存功能修改测试完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改消息页面无法进入下级页面问题</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -816,7 +680,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -918,14 +782,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -934,43 +790,23 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10.5"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <color indexed="8"/>
+      <sz val="11"/>
+      <color theme="3" tint="0.39997558519241921"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color theme="11"/>
+      <color theme="10"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -1001,7 +837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -1313,8 +1149,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="35">
+  <cellStyleXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1348,74 +1210,131 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1519,12 +1438,10 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="13" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1533,24 +1450,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="22" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,6 +1465,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1608,8 +1534,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="35">
+  <cellStyles count="54">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1622,7 +1554,11 @@
     <cellStyle name="常规 4" xfId="7"/>
     <cellStyle name="常规 5" xfId="9"/>
     <cellStyle name="常规 6" xfId="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8"/>
+    <cellStyle name="超链接" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="16" builtinId="9" hidden="1"/>
@@ -1644,6 +1580,21 @@
     <cellStyle name="访问过的超链接" xfId="32" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="33" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="35" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="37" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="39" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="41" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1657,49 +1608,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>51289</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>124558</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>536545</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>88494</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="51289" y="293077"/>
-          <a:ext cx="4163371" cy="7041744"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2054,26 +1962,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="61"/>
-      <c r="D1" s="60" t="s">
+      <c r="C1" s="62"/>
+      <c r="D1" s="61" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="61"/>
-      <c r="F1" s="62" t="s">
+      <c r="E1" s="62"/>
+      <c r="F1" s="63" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="63"/>
+      <c r="G1" s="61"/>
+      <c r="H1" s="61"/>
+      <c r="I1" s="64"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="65"/>
+      <c r="A2" s="66"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2100,7 +2008,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="51" t="s">
+      <c r="A3" s="52" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2129,7 +2037,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="52"/>
+      <c r="A4" s="53"/>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
@@ -2156,7 +2064,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="52"/>
+      <c r="A5" s="53"/>
       <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2083,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="52"/>
+      <c r="A6" s="53"/>
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2200,7 +2108,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="52"/>
+      <c r="A7" s="53"/>
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -2227,7 +2135,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="52"/>
+      <c r="A8" s="53"/>
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2244,7 +2152,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="52"/>
+      <c r="A9" s="53"/>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
@@ -2269,7 +2177,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="52"/>
+      <c r="A10" s="53"/>
       <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
@@ -2294,7 +2202,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="52"/>
+      <c r="A11" s="53"/>
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2227,7 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="52"/>
+      <c r="A12" s="53"/>
       <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
@@ -2342,7 +2250,7 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="52"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="12" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2277,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="52"/>
+      <c r="A14" s="53"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
@@ -2390,7 +2298,7 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="52"/>
+      <c r="A15" s="53"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
@@ -2413,7 +2321,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="52"/>
+      <c r="A16" s="53"/>
       <c r="B16" s="12" t="s">
         <v>74</v>
       </c>
@@ -2440,7 +2348,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="52"/>
+      <c r="A17" s="53"/>
       <c r="B17" s="12" t="s">
         <v>81</v>
       </c>
@@ -2465,7 +2373,7 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="52"/>
+      <c r="A18" s="53"/>
       <c r="B18" s="12" t="s">
         <v>84</v>
       </c>
@@ -2490,7 +2398,7 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="52"/>
+      <c r="A19" s="53"/>
       <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
@@ -2507,7 +2415,7 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="53"/>
+      <c r="A20" s="54"/>
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
@@ -2532,18 +2440,18 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="51" t="s">
+      <c r="A21" s="52" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="54" t="s">
+      <c r="D21" s="55" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="55" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="15"/>
@@ -2551,46 +2459,46 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="52"/>
+      <c r="A22" s="53"/>
       <c r="B22" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="55"/>
+      <c r="D22" s="56"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="55"/>
+      <c r="F22" s="56"/>
       <c r="G22" s="15"/>
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="52"/>
+      <c r="A23" s="53"/>
       <c r="B23" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="55"/>
+      <c r="D23" s="56"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="55"/>
+      <c r="F23" s="56"/>
       <c r="G23" s="15"/>
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="52"/>
+      <c r="A24" s="53"/>
       <c r="B24" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="56"/>
+      <c r="D24" s="57"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="55"/>
+      <c r="F24" s="56"/>
       <c r="G24" s="15"/>
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="52"/>
+      <c r="A25" s="53"/>
       <c r="B25" s="26" t="s">
         <v>97</v>
       </c>
@@ -2599,13 +2507,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="55"/>
+      <c r="F25" s="56"/>
       <c r="G25" s="15"/>
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="52"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="26" t="s">
         <v>98</v>
       </c>
@@ -2614,13 +2522,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="55"/>
+      <c r="F26" s="56"/>
       <c r="G26" s="15"/>
       <c r="H26" s="29"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="52"/>
+      <c r="A27" s="53"/>
       <c r="B27" s="26" t="s">
         <v>99</v>
       </c>
@@ -2629,13 +2537,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="55"/>
+      <c r="F27" s="56"/>
       <c r="G27" s="15"/>
       <c r="H27" s="29"/>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="52"/>
+      <c r="A28" s="53"/>
       <c r="B28" s="31" t="s">
         <v>100</v>
       </c>
@@ -2644,13 +2552,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="55"/>
+      <c r="F28" s="56"/>
       <c r="G28" s="15"/>
       <c r="H28" s="29"/>
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="53"/>
+      <c r="A29" s="54"/>
       <c r="B29" s="30" t="s">
         <v>101</v>
       </c>
@@ -2659,13 +2567,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="56"/>
+      <c r="F29" s="57"/>
       <c r="G29" s="15"/>
       <c r="H29" s="29"/>
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="51" t="s">
+      <c r="A30" s="52" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2676,7 +2584,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="58" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="15"/>
@@ -2684,7 +2592,7 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="52"/>
+      <c r="A31" s="53"/>
       <c r="B31" s="10" t="s">
         <v>105</v>
       </c>
@@ -2693,13 +2601,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="58"/>
+      <c r="F31" s="59"/>
       <c r="G31" s="15"/>
       <c r="H31" s="21"/>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="52"/>
+      <c r="A32" s="53"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -2708,13 +2616,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="58"/>
+      <c r="F32" s="59"/>
       <c r="G32" s="15"/>
       <c r="H32" s="21"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="52"/>
+      <c r="A33" s="53"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -2723,13 +2631,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="58"/>
+      <c r="F33" s="59"/>
       <c r="G33" s="15"/>
       <c r="H33" s="21"/>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="52"/>
+      <c r="A34" s="53"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -2738,13 +2646,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="58"/>
+      <c r="F34" s="59"/>
       <c r="G34" s="15"/>
       <c r="H34" s="21"/>
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="52"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="12" t="s">
         <v>113</v>
       </c>
@@ -2753,13 +2661,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="58"/>
+      <c r="F35" s="59"/>
       <c r="G35" s="15"/>
       <c r="H35" s="21"/>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="52"/>
+      <c r="A36" s="53"/>
       <c r="B36" s="12" t="s">
         <v>114</v>
       </c>
@@ -2768,13 +2676,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="58"/>
+      <c r="F36" s="59"/>
       <c r="G36" s="15"/>
       <c r="H36" s="21"/>
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="52"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="12" t="s">
         <v>115</v>
       </c>
@@ -2783,13 +2691,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="58"/>
+      <c r="F37" s="59"/>
       <c r="G37" s="15"/>
       <c r="H37" s="21"/>
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="53"/>
+      <c r="A38" s="54"/>
       <c r="B38" s="32" t="s">
         <v>116</v>
       </c>
@@ -2798,7 +2706,7 @@
         <v>117</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="59"/>
+      <c r="F38" s="60"/>
       <c r="G38" s="15"/>
       <c r="H38" s="21"/>
       <c r="I38" s="12"/>
@@ -2830,66 +2738,66 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J8"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J7" sqref="J7"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="53.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" style="47" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="38" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="48" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="40" customWidth="1"/>
+    <col min="6" max="6" width="8.5" style="36" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="41" customWidth="1"/>
+    <col min="8" max="8" width="21.83203125" style="38" customWidth="1"/>
     <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="40.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="51.1640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="46" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>121</v>
-      </c>
       <c r="D1" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="39" t="s">
-        <v>138</v>
-      </c>
-      <c r="H1" s="39" t="s">
-        <v>139</v>
+      <c r="G1" s="37" t="s">
+        <v>127</v>
+      </c>
+      <c r="H1" s="37" t="s">
+        <v>128</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="24" customHeight="1">
-      <c r="A2" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="24" customHeight="1">
+      <c r="A2" s="45" t="s">
+        <v>125</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C2" s="4">
         <v>43250</v>
@@ -2898,15 +2806,15 @@
         <v>43253</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F2" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G2" s="49">
+        <v>126</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G2" s="42">
         <v>43251.833333333336</v>
       </c>
-      <c r="H2" s="47">
+      <c r="H2" s="40">
         <v>43251.958333333336</v>
       </c>
       <c r="I2" s="3">
@@ -2914,12 +2822,12 @@
       </c>
       <c r="J2" s="3"/>
     </row>
-    <row r="3" spans="1:10" ht="21" customHeight="1">
-      <c r="A3" s="3" t="s">
-        <v>141</v>
+    <row r="3" spans="1:11" ht="21" customHeight="1">
+      <c r="A3" s="45" t="s">
+        <v>130</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C3" s="4">
         <v>43250</v>
@@ -2928,24 +2836,24 @@
         <v>43254</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F3" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G3" s="50"/>
-      <c r="H3" s="43"/>
+        <v>126</v>
+      </c>
+      <c r="F3" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G3" s="43"/>
+      <c r="H3" s="39"/>
       <c r="I3" s="3"/>
       <c r="J3" s="3" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="21" customHeight="1">
-      <c r="A4" s="3" t="s">
-        <v>142</v>
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="21" customHeight="1">
+      <c r="A4" s="45" t="s">
+        <v>131</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C4" s="4">
         <v>43250</v>
@@ -2954,30 +2862,30 @@
         <v>43253</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G4" s="49">
+        <v>126</v>
+      </c>
+      <c r="F4" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G4" s="42">
         <v>43253.541666666664</v>
       </c>
-      <c r="H4" s="49" t="s">
-        <v>150</v>
+      <c r="H4" s="42" t="s">
+        <v>138</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="24" customHeight="1">
-      <c r="A5" s="3" t="s">
-        <v>143</v>
+        <v>137</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="24" customHeight="1">
+      <c r="A5" s="45" t="s">
+        <v>132</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C5" s="4">
         <v>43250</v>
@@ -2986,93 +2894,223 @@
         <v>43254</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F5" s="37" t="s">
-        <v>152</v>
-      </c>
-      <c r="G5" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="H5" s="49">
+        <v>126</v>
+      </c>
+      <c r="F5" s="35" t="s">
+        <v>140</v>
+      </c>
+      <c r="G5" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="H5" s="42">
         <v>43253.5</v>
       </c>
       <c r="I5" s="3">
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="24" customHeight="1">
-      <c r="A6" s="3"/>
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="24" customHeight="1">
+      <c r="A6" s="45"/>
       <c r="B6" s="3"/>
       <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="3"/>
-      <c r="F6" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="G6" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>155</v>
+      <c r="F6" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H6" s="42" t="s">
+        <v>141</v>
       </c>
       <c r="I6" s="3">
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="24" customHeight="1">
-      <c r="A7" s="3"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="53" customHeight="1">
+      <c r="A7" s="45"/>
       <c r="B7" s="3"/>
       <c r="C7" s="4"/>
       <c r="D7" s="4"/>
       <c r="E7" s="3"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>156</v>
+      <c r="F7" s="35"/>
+      <c r="G7" s="42" t="s">
+        <v>146</v>
+      </c>
+      <c r="H7" s="42" t="s">
+        <v>147</v>
       </c>
       <c r="I7" s="3">
         <v>2.5</v>
       </c>
       <c r="J7" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="28" customHeight="1">
+      <c r="A8" s="44" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="4">
+        <v>43256</v>
+      </c>
+      <c r="D8" s="4">
+        <v>43257</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F8" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H8" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.67</v>
+      </c>
+      <c r="J8" s="67" t="s">
+        <v>159</v>
+      </c>
+      <c r="K8" s="3"/>
+    </row>
+    <row r="9" spans="1:11" s="51" customFormat="1" ht="70" customHeight="1">
+      <c r="A9" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C9" s="50">
+        <v>43256</v>
+      </c>
+      <c r="D9" s="50">
+        <v>43259</v>
+      </c>
+      <c r="E9" s="49" t="s">
+        <v>154</v>
+      </c>
+      <c r="F9" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" s="42" t="s">
+        <v>157</v>
+      </c>
+      <c r="H9" s="42" t="s">
+        <v>156</v>
+      </c>
+      <c r="I9" s="68"/>
+      <c r="J9" s="68"/>
+      <c r="K9" s="49"/>
+    </row>
+    <row r="10" spans="1:11" ht="25" customHeight="1">
+      <c r="A10" s="45" t="s">
+        <v>155</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="50">
+        <v>43256</v>
+      </c>
+      <c r="D10" s="50">
+        <v>43257</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G10" s="42" t="s">
+        <v>160</v>
+      </c>
+      <c r="H10" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="I10" s="3">
+        <v>0.5</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25" customHeight="1">
+      <c r="A11" s="45" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="25" customHeight="1">
-      <c r="A8" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="B11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="50">
+        <v>43256</v>
+      </c>
+      <c r="D11" s="50">
+        <v>43258</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F11" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="C8" s="4">
+      <c r="G11" s="42" t="s">
+        <v>162</v>
+      </c>
+      <c r="H11" s="42" t="s">
+        <v>163</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25" customHeight="1">
+      <c r="A12" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="4">
         <v>43250</v>
       </c>
-      <c r="D8" s="4"/>
-      <c r="E8" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="F8" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="50"/>
-      <c r="H8" s="43"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F12" s="35" t="s">
+        <v>136</v>
+      </c>
+      <c r="G12" s="43"/>
+      <c r="H12" s="39"/>
+      <c r="I12" s="3"/>
+      <c r="J12" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I2"/>
+  <mergeCells count="2">
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+  </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F9:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F13:F1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>
@@ -3085,149 +3123,4 @@
     </ext>
   </extLst>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:A14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="2" spans="1:1" ht="15">
-      <c r="A2" s="44" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" ht="15">
-      <c r="A4" s="44" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="46" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" s="46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" s="46" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" s="45"/>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" s="46" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" s="46" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" s="46" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" s="45"/>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" s="46" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" s="46" t="s">
-        <v>135</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A240"/>
-  <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
-  <cols>
-    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="36" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="35"/>
-    </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="35"/>
-    </row>
-    <row r="137" spans="1:1">
-      <c r="A137" s="35"/>
-    </row>
-    <row r="162" spans="1:1">
-      <c r="A162" s="42"/>
-    </row>
-    <row r="163" spans="1:1">
-      <c r="A163" s="41"/>
-    </row>
-    <row r="164" spans="1:1">
-      <c r="A164" s="41"/>
-    </row>
-    <row r="165" spans="1:1">
-      <c r="A165" s="41"/>
-    </row>
-    <row r="166" spans="1:1">
-      <c r="A166" s="41"/>
-    </row>
-    <row r="185" spans="1:1">
-      <c r="A185" s="35"/>
-    </row>
-    <row r="221" spans="1:1">
-      <c r="A221" s="35"/>
-    </row>
-    <row r="240" spans="1:1">
-      <c r="A240" s="35"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="A1" location="问题与任务!A1" display="返回"/>
-  </hyperlinks>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
 </file>
--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="860" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目梳理20150708" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="172">
   <si>
     <t>类型</t>
   </si>
@@ -675,12 +675,38 @@
     <t>修改消息页面无法进入下级页面问题</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>2018/6/20  PM 14:20:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/20  PM 18:20:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/21  AM 9:10:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/21  AM 10:40:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>消息推送功能集成幵发
+1)消息推送内容按安卓风格；
+2)各种类型未读消息推送：公文案卷、通知、传阅消息、回退消息、督办消息</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>集成个推SDK推送服务，咨询个推官方支持，解决接收不到通知的问题。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -810,6 +836,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1176,7 +1209,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="54">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1333,8 +1366,50 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1489,6 +1564,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1516,32 +1609,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="54">
+  <cellStyles count="68">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1558,6 +1636,13 @@
     <cellStyle name="超链接" xfId="48" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="50" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1595,6 +1680,13 @@
     <cellStyle name="访问过的超链接" xfId="49" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="51" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1962,26 +2054,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="61" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="61" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="63" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="61"/>
-      <c r="H1" s="61"/>
-      <c r="I1" s="64"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="66"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2100,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="52" t="s">
+      <c r="A3" s="58" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2037,7 +2129,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="53"/>
+      <c r="A4" s="59"/>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
@@ -2064,7 +2156,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="53"/>
+      <c r="A5" s="59"/>
       <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2083,7 +2175,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="53"/>
+      <c r="A6" s="59"/>
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2108,7 +2200,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="53"/>
+      <c r="A7" s="59"/>
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -2135,7 +2227,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="53"/>
+      <c r="A8" s="59"/>
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2152,7 +2244,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="53"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
@@ -2177,7 +2269,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="53"/>
+      <c r="A10" s="59"/>
       <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
@@ -2202,7 +2294,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="53"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
@@ -2227,7 +2319,7 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="53"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
@@ -2250,7 +2342,7 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="53"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="12" t="s">
         <v>58</v>
       </c>
@@ -2277,7 +2369,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="53"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
@@ -2298,7 +2390,7 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="53"/>
+      <c r="A15" s="59"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
@@ -2321,7 +2413,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="53"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="12" t="s">
         <v>74</v>
       </c>
@@ -2348,7 +2440,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="53"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="12" t="s">
         <v>81</v>
       </c>
@@ -2373,7 +2465,7 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="53"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="12" t="s">
         <v>84</v>
       </c>
@@ -2398,7 +2490,7 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="53"/>
+      <c r="A19" s="59"/>
       <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
@@ -2415,7 +2507,7 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="54"/>
+      <c r="A20" s="60"/>
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
@@ -2440,18 +2532,18 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="52" t="s">
+      <c r="A21" s="58" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="55" t="s">
+      <c r="D21" s="61" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="61" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="15"/>
@@ -2459,46 +2551,46 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="53"/>
+      <c r="A22" s="59"/>
       <c r="B22" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="56"/>
+      <c r="D22" s="62"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="56"/>
+      <c r="F22" s="62"/>
       <c r="G22" s="15"/>
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="53"/>
+      <c r="A23" s="59"/>
       <c r="B23" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="56"/>
+      <c r="D23" s="62"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="56"/>
+      <c r="F23" s="62"/>
       <c r="G23" s="15"/>
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="53"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="57"/>
+      <c r="D24" s="63"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="56"/>
+      <c r="F24" s="62"/>
       <c r="G24" s="15"/>
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="53"/>
+      <c r="A25" s="59"/>
       <c r="B25" s="26" t="s">
         <v>97</v>
       </c>
@@ -2507,13 +2599,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="56"/>
+      <c r="F25" s="62"/>
       <c r="G25" s="15"/>
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="53"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="26" t="s">
         <v>98</v>
       </c>
@@ -2522,13 +2614,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="56"/>
+      <c r="F26" s="62"/>
       <c r="G26" s="15"/>
       <c r="H26" s="29"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="53"/>
+      <c r="A27" s="59"/>
       <c r="B27" s="26" t="s">
         <v>99</v>
       </c>
@@ -2537,13 +2629,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="56"/>
+      <c r="F27" s="62"/>
       <c r="G27" s="15"/>
       <c r="H27" s="29"/>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="53"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="31" t="s">
         <v>100</v>
       </c>
@@ -2552,13 +2644,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="56"/>
+      <c r="F28" s="62"/>
       <c r="G28" s="15"/>
       <c r="H28" s="29"/>
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="54"/>
+      <c r="A29" s="60"/>
       <c r="B29" s="30" t="s">
         <v>101</v>
       </c>
@@ -2567,13 +2659,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="57"/>
+      <c r="F29" s="63"/>
       <c r="G29" s="15"/>
       <c r="H29" s="29"/>
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="58" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2584,7 +2676,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="58" t="s">
+      <c r="F30" s="64" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="15"/>
@@ -2592,7 +2684,7 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="53"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="10" t="s">
         <v>105</v>
       </c>
@@ -2601,13 +2693,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="59"/>
+      <c r="F31" s="65"/>
       <c r="G31" s="15"/>
       <c r="H31" s="21"/>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="53"/>
+      <c r="A32" s="59"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -2616,13 +2708,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="59"/>
+      <c r="F32" s="65"/>
       <c r="G32" s="15"/>
       <c r="H32" s="21"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="53"/>
+      <c r="A33" s="59"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -2631,13 +2723,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="59"/>
+      <c r="F33" s="65"/>
       <c r="G33" s="15"/>
       <c r="H33" s="21"/>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="53"/>
+      <c r="A34" s="59"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -2646,13 +2738,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="59"/>
+      <c r="F34" s="65"/>
       <c r="G34" s="15"/>
       <c r="H34" s="21"/>
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="53"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="12" t="s">
         <v>113</v>
       </c>
@@ -2661,13 +2753,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="59"/>
+      <c r="F35" s="65"/>
       <c r="G35" s="15"/>
       <c r="H35" s="21"/>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="53"/>
+      <c r="A36" s="59"/>
       <c r="B36" s="12" t="s">
         <v>114</v>
       </c>
@@ -2676,13 +2768,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="59"/>
+      <c r="F36" s="65"/>
       <c r="G36" s="15"/>
       <c r="H36" s="21"/>
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="53"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="12" t="s">
         <v>115</v>
       </c>
@@ -2691,13 +2783,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="59"/>
+      <c r="F37" s="65"/>
       <c r="G37" s="15"/>
       <c r="H37" s="21"/>
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="54"/>
+      <c r="A38" s="60"/>
       <c r="B38" s="32" t="s">
         <v>116</v>
       </c>
@@ -2706,23 +2798,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="60"/>
+      <c r="F38" s="66"/>
       <c r="G38" s="15"/>
       <c r="H38" s="21"/>
       <c r="I38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="F30:F38"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="F30:F38"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2738,11 +2830,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2755,7 +2847,7 @@
     <col min="6" max="6" width="8.5" style="36" customWidth="1"/>
     <col min="7" max="7" width="25.33203125" style="41" customWidth="1"/>
     <col min="8" max="8" width="21.83203125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="21.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="51.1640625" style="1" customWidth="1"/>
     <col min="11" max="16384" width="9" style="1"/>
   </cols>
@@ -3000,7 +3092,7 @@
       <c r="D9" s="50">
         <v>43259</v>
       </c>
-      <c r="E9" s="49" t="s">
+      <c r="E9" s="3" t="s">
         <v>154</v>
       </c>
       <c r="F9" s="35" t="s">
@@ -3080,27 +3172,77 @@
         <v>165</v>
       </c>
     </row>
-    <row r="12" spans="1:11" ht="25" customHeight="1">
+    <row r="12" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
       <c r="A12" s="45" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C12" s="4">
-        <v>43250</v>
-      </c>
-      <c r="D12" s="4"/>
+      <c r="C12" s="50">
+        <v>43270</v>
+      </c>
+      <c r="D12" s="50">
+        <v>43272</v>
+      </c>
       <c r="E12" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F12" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="42" t="s">
+        <v>167</v>
+      </c>
+      <c r="I12" s="3">
+        <v>4</v>
+      </c>
+      <c r="J12" s="45"/>
+    </row>
+    <row r="13" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
+      <c r="A13" s="45"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="69" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="69" t="s">
+        <v>169</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="45" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25" customHeight="1">
+      <c r="A14" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="4">
+        <v>43250</v>
+      </c>
+      <c r="D14" s="4"/>
+      <c r="E14" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F14" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G12" s="43"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
+      <c r="G14" s="43"/>
+      <c r="H14" s="39"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I2"/>
@@ -3110,7 +3252,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F13:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F15:F1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14600" tabRatio="860" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14340" tabRatio="860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目梳理20150708" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="180">
   <si>
     <t>类型</t>
   </si>
@@ -699,6 +699,38 @@
   </si>
   <si>
     <t>集成个推SDK推送服务，咨询个推官方支持，解决接收不到通知的问题。</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>通讯录功能开发</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/28  AM 9:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/28  AM 12:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/28  PM 3:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/28  PM 5:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/29  PM 1:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/6/29  PM 2:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成通讯录功能开发</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1209,7 +1241,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="68">
+  <cellStyleXfs count="92">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1337,6 +1369,78 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1564,6 +1668,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1582,44 +1716,14 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="68">
+  <cellStyles count="92">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1643,6 +1747,18 @@
     <cellStyle name="超链接" xfId="62" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="64" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="72" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="74" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="76" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="78" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="80" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="82" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="84" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1687,6 +1803,18 @@
     <cellStyle name="访问过的超链接" xfId="63" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="65" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="73" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="75" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="77" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="79" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="81" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="83" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="85" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2054,26 +2182,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="66" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="63"/>
+      <c r="D1" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="63"/>
+      <c r="F1" s="64" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="55"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="65"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="57"/>
+      <c r="A2" s="67"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2100,7 +2228,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="58" t="s">
+      <c r="A3" s="53" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2129,7 +2257,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="59"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
@@ -2156,7 +2284,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="59"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2175,7 +2303,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="59"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2200,7 +2328,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="59"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -2227,7 +2355,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="59"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2244,7 +2372,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="59"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
@@ -2269,7 +2397,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="59"/>
+      <c r="A10" s="54"/>
       <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
@@ -2294,7 +2422,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="59"/>
+      <c r="A11" s="54"/>
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2447,7 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="59"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
@@ -2342,7 +2470,7 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="59"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="12" t="s">
         <v>58</v>
       </c>
@@ -2369,7 +2497,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="59"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
@@ -2390,7 +2518,7 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="59"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
@@ -2413,7 +2541,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="59"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="12" t="s">
         <v>74</v>
       </c>
@@ -2440,7 +2568,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="59"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="12" t="s">
         <v>81</v>
       </c>
@@ -2465,7 +2593,7 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="59"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="12" t="s">
         <v>84</v>
       </c>
@@ -2490,7 +2618,7 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="59"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
@@ -2507,7 +2635,7 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="60"/>
+      <c r="A20" s="55"/>
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
@@ -2532,18 +2660,18 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="58" t="s">
+      <c r="A21" s="53" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="61" t="s">
+      <c r="D21" s="56" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="61" t="s">
+      <c r="F21" s="56" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="15"/>
@@ -2551,46 +2679,46 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="59"/>
+      <c r="A22" s="54"/>
       <c r="B22" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="62"/>
+      <c r="D22" s="57"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="62"/>
+      <c r="F22" s="57"/>
       <c r="G22" s="15"/>
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="59"/>
+      <c r="A23" s="54"/>
       <c r="B23" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="62"/>
+      <c r="D23" s="57"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="62"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="15"/>
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="59"/>
+      <c r="A24" s="54"/>
       <c r="B24" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="63"/>
+      <c r="D24" s="58"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="62"/>
+      <c r="F24" s="57"/>
       <c r="G24" s="15"/>
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="59"/>
+      <c r="A25" s="54"/>
       <c r="B25" s="26" t="s">
         <v>97</v>
       </c>
@@ -2599,13 +2727,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="62"/>
+      <c r="F25" s="57"/>
       <c r="G25" s="15"/>
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="59"/>
+      <c r="A26" s="54"/>
       <c r="B26" s="26" t="s">
         <v>98</v>
       </c>
@@ -2614,13 +2742,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="62"/>
+      <c r="F26" s="57"/>
       <c r="G26" s="15"/>
       <c r="H26" s="29"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="59"/>
+      <c r="A27" s="54"/>
       <c r="B27" s="26" t="s">
         <v>99</v>
       </c>
@@ -2629,13 +2757,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="62"/>
+      <c r="F27" s="57"/>
       <c r="G27" s="15"/>
       <c r="H27" s="29"/>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="59"/>
+      <c r="A28" s="54"/>
       <c r="B28" s="31" t="s">
         <v>100</v>
       </c>
@@ -2644,13 +2772,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="62"/>
+      <c r="F28" s="57"/>
       <c r="G28" s="15"/>
       <c r="H28" s="29"/>
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="30" t="s">
         <v>101</v>
       </c>
@@ -2659,13 +2787,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="63"/>
+      <c r="F29" s="58"/>
       <c r="G29" s="15"/>
       <c r="H29" s="29"/>
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="58" t="s">
+      <c r="A30" s="53" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2676,7 +2804,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="64" t="s">
+      <c r="F30" s="59" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="15"/>
@@ -2684,7 +2812,7 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="59"/>
+      <c r="A31" s="54"/>
       <c r="B31" s="10" t="s">
         <v>105</v>
       </c>
@@ -2693,13 +2821,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="65"/>
+      <c r="F31" s="60"/>
       <c r="G31" s="15"/>
       <c r="H31" s="21"/>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="59"/>
+      <c r="A32" s="54"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -2708,13 +2836,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="65"/>
+      <c r="F32" s="60"/>
       <c r="G32" s="15"/>
       <c r="H32" s="21"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="59"/>
+      <c r="A33" s="54"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -2723,13 +2851,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="65"/>
+      <c r="F33" s="60"/>
       <c r="G33" s="15"/>
       <c r="H33" s="21"/>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="59"/>
+      <c r="A34" s="54"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -2738,13 +2866,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="65"/>
+      <c r="F34" s="60"/>
       <c r="G34" s="15"/>
       <c r="H34" s="21"/>
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="59"/>
+      <c r="A35" s="54"/>
       <c r="B35" s="12" t="s">
         <v>113</v>
       </c>
@@ -2753,13 +2881,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="65"/>
+      <c r="F35" s="60"/>
       <c r="G35" s="15"/>
       <c r="H35" s="21"/>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="59"/>
+      <c r="A36" s="54"/>
       <c r="B36" s="12" t="s">
         <v>114</v>
       </c>
@@ -2768,13 +2896,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="65"/>
+      <c r="F36" s="60"/>
       <c r="G36" s="15"/>
       <c r="H36" s="21"/>
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="59"/>
+      <c r="A37" s="54"/>
       <c r="B37" s="12" t="s">
         <v>115</v>
       </c>
@@ -2783,13 +2911,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="65"/>
+      <c r="F37" s="60"/>
       <c r="G37" s="15"/>
       <c r="H37" s="21"/>
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="60"/>
+      <c r="A38" s="55"/>
       <c r="B38" s="32" t="s">
         <v>116</v>
       </c>
@@ -2798,23 +2926,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="66"/>
+      <c r="F38" s="61"/>
       <c r="G38" s="15"/>
       <c r="H38" s="21"/>
       <c r="I38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A20"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="F21:F29"/>
     <mergeCell ref="F30:F38"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A20"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2830,11 +2958,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3071,10 +3199,10 @@
       <c r="H8" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="I8" s="67">
+      <c r="I8" s="68">
         <v>0.67</v>
       </c>
-      <c r="J8" s="67" t="s">
+      <c r="J8" s="68" t="s">
         <v>159</v>
       </c>
       <c r="K8" s="3"/>
@@ -3104,8 +3232,8 @@
       <c r="H9" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="68"/>
-      <c r="J9" s="68"/>
+      <c r="I9" s="69"/>
+      <c r="J9" s="69"/>
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" ht="25" customHeight="1">
@@ -3209,10 +3337,10 @@
       <c r="D13" s="50"/>
       <c r="E13" s="3"/>
       <c r="F13" s="35"/>
-      <c r="G13" s="69" t="s">
+      <c r="G13" s="52" t="s">
         <v>168</v>
       </c>
-      <c r="H13" s="69" t="s">
+      <c r="H13" s="52" t="s">
         <v>169</v>
       </c>
       <c r="I13" s="3">
@@ -3222,27 +3350,95 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:11" ht="25" customHeight="1">
+    <row r="14" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
       <c r="A14" s="45" t="s">
-        <v>133</v>
+        <v>172</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C14" s="4">
-        <v>43250</v>
-      </c>
-      <c r="D14" s="4"/>
+      <c r="C14" s="50">
+        <v>43279</v>
+      </c>
+      <c r="D14" s="50">
+        <v>43280</v>
+      </c>
       <c r="E14" s="3" t="s">
         <v>126</v>
       </c>
       <c r="F14" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>173</v>
+      </c>
+      <c r="H14" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="I14" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J14" s="45" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="35"/>
+      <c r="G15" s="35" t="s">
+        <v>175</v>
+      </c>
+      <c r="H15" s="35" t="s">
+        <v>176</v>
+      </c>
+      <c r="I15" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="J15" s="45"/>
+    </row>
+    <row r="16" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
+      <c r="A16" s="45"/>
+      <c r="B16" s="3"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35" t="s">
+        <v>177</v>
+      </c>
+      <c r="H16" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J16" s="45"/>
+    </row>
+    <row r="17" spans="1:10" ht="25" customHeight="1">
+      <c r="A17" s="45" t="s">
+        <v>133</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="4">
+        <v>43250</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="F17" s="35" t="s">
         <v>136</v>
       </c>
-      <c r="G14" s="43"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
+      <c r="G17" s="43"/>
+      <c r="H17" s="39"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:I2"/>
@@ -3252,7 +3448,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F15:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F18:F1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="14340" tabRatio="860" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目梳理20150708" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="184">
   <si>
     <t>类型</t>
   </si>
@@ -533,10 +533,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>未开始</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>同时测试页面闪退问题</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -722,15 +718,35 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
+    <t>2018/6/29  PM 2:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成通讯录功能开发</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>7月</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
     <t>2018/6/29  PM 1:00:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2018/6/29  PM 2:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成通讯录功能开发</t>
+    <t>2018/7/18 PM 6:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/7/18 PM 6:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成新建公文开发</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1241,7 +1257,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="92">
+  <cellStyleXfs count="100">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1512,8 +1528,32 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1671,6 +1711,24 @@
     <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1698,32 +1756,17 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="92">
+  <cellStyles count="100">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1759,6 +1802,10 @@
     <cellStyle name="超链接" xfId="86" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="88" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="90" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="92" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1815,6 +1862,10 @@
     <cellStyle name="访问过的超链接" xfId="87" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="89" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="91" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="93" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2182,26 +2233,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="62" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="63"/>
-      <c r="D1" s="62" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="63"/>
-      <c r="F1" s="64" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="65"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="67"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2228,7 +2279,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="53" t="s">
+      <c r="A3" s="59" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2257,7 +2308,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="54"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2335,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="54"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2303,7 +2354,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="54"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2328,7 +2379,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="54"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -2355,7 +2406,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="54"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2372,7 +2423,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="54"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
@@ -2397,7 +2448,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="54"/>
+      <c r="A10" s="60"/>
       <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
@@ -2422,7 +2473,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="54"/>
+      <c r="A11" s="60"/>
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
@@ -2447,7 +2498,7 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="54"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
@@ -2470,7 +2521,7 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="54"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="12" t="s">
         <v>58</v>
       </c>
@@ -2497,7 +2548,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="54"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
@@ -2518,7 +2569,7 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="54"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
@@ -2541,7 +2592,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="54"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="12" t="s">
         <v>74</v>
       </c>
@@ -2568,7 +2619,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="54"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="12" t="s">
         <v>81</v>
       </c>
@@ -2593,7 +2644,7 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="54"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="12" t="s">
         <v>84</v>
       </c>
@@ -2618,7 +2669,7 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="54"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
@@ -2635,7 +2686,7 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="55"/>
+      <c r="A20" s="61"/>
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
@@ -2660,18 +2711,18 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="53" t="s">
+      <c r="A21" s="59" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="56" t="s">
+      <c r="D21" s="62" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="56" t="s">
+      <c r="F21" s="62" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="15"/>
@@ -2679,46 +2730,46 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="54"/>
+      <c r="A22" s="60"/>
       <c r="B22" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="57"/>
+      <c r="D22" s="63"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="57"/>
+      <c r="F22" s="63"/>
       <c r="G22" s="15"/>
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="54"/>
+      <c r="A23" s="60"/>
       <c r="B23" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="57"/>
+      <c r="D23" s="63"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="57"/>
+      <c r="F23" s="63"/>
       <c r="G23" s="15"/>
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="54"/>
+      <c r="A24" s="60"/>
       <c r="B24" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="58"/>
+      <c r="D24" s="64"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="57"/>
+      <c r="F24" s="63"/>
       <c r="G24" s="15"/>
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="54"/>
+      <c r="A25" s="60"/>
       <c r="B25" s="26" t="s">
         <v>97</v>
       </c>
@@ -2727,13 +2778,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="57"/>
+      <c r="F25" s="63"/>
       <c r="G25" s="15"/>
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="54"/>
+      <c r="A26" s="60"/>
       <c r="B26" s="26" t="s">
         <v>98</v>
       </c>
@@ -2742,13 +2793,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="57"/>
+      <c r="F26" s="63"/>
       <c r="G26" s="15"/>
       <c r="H26" s="29"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="54"/>
+      <c r="A27" s="60"/>
       <c r="B27" s="26" t="s">
         <v>99</v>
       </c>
@@ -2757,13 +2808,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="57"/>
+      <c r="F27" s="63"/>
       <c r="G27" s="15"/>
       <c r="H27" s="29"/>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="54"/>
+      <c r="A28" s="60"/>
       <c r="B28" s="31" t="s">
         <v>100</v>
       </c>
@@ -2772,13 +2823,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="57"/>
+      <c r="F28" s="63"/>
       <c r="G28" s="15"/>
       <c r="H28" s="29"/>
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="55"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="30" t="s">
         <v>101</v>
       </c>
@@ -2787,13 +2838,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="58"/>
+      <c r="F29" s="64"/>
       <c r="G29" s="15"/>
       <c r="H29" s="29"/>
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="53" t="s">
+      <c r="A30" s="59" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2804,7 +2855,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="59" t="s">
+      <c r="F30" s="65" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="15"/>
@@ -2812,7 +2863,7 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="54"/>
+      <c r="A31" s="60"/>
       <c r="B31" s="10" t="s">
         <v>105</v>
       </c>
@@ -2821,13 +2872,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="60"/>
+      <c r="F31" s="66"/>
       <c r="G31" s="15"/>
       <c r="H31" s="21"/>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="54"/>
+      <c r="A32" s="60"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -2836,13 +2887,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="60"/>
+      <c r="F32" s="66"/>
       <c r="G32" s="15"/>
       <c r="H32" s="21"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="54"/>
+      <c r="A33" s="60"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -2851,13 +2902,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="60"/>
+      <c r="F33" s="66"/>
       <c r="G33" s="15"/>
       <c r="H33" s="21"/>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="54"/>
+      <c r="A34" s="60"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -2866,13 +2917,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="60"/>
+      <c r="F34" s="66"/>
       <c r="G34" s="15"/>
       <c r="H34" s="21"/>
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="54"/>
+      <c r="A35" s="60"/>
       <c r="B35" s="12" t="s">
         <v>113</v>
       </c>
@@ -2881,13 +2932,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="60"/>
+      <c r="F35" s="66"/>
       <c r="G35" s="15"/>
       <c r="H35" s="21"/>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="54"/>
+      <c r="A36" s="60"/>
       <c r="B36" s="12" t="s">
         <v>114</v>
       </c>
@@ -2896,13 +2947,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="60"/>
+      <c r="F36" s="66"/>
       <c r="G36" s="15"/>
       <c r="H36" s="21"/>
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="54"/>
+      <c r="A37" s="60"/>
       <c r="B37" s="12" t="s">
         <v>115</v>
       </c>
@@ -2911,13 +2962,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="60"/>
+      <c r="F37" s="66"/>
       <c r="G37" s="15"/>
       <c r="H37" s="21"/>
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="55"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="32" t="s">
         <v>116</v>
       </c>
@@ -2926,23 +2977,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="61"/>
+      <c r="F38" s="67"/>
       <c r="G38" s="15"/>
       <c r="H38" s="21"/>
       <c r="I38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="F30:F38"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="F30:F38"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2958,11 +3009,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3091,13 +3142,13 @@
         <v>43253.541666666664</v>
       </c>
       <c r="H4" s="42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I4" s="3">
         <v>3</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1">
@@ -3117,10 +3168,10 @@
         <v>126</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G5" s="42" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="H5" s="42">
         <v>43253.5</v>
@@ -3129,7 +3180,7 @@
         <v>1</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1">
@@ -3142,16 +3193,16 @@
         <v>122</v>
       </c>
       <c r="G6" s="42" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="H6" s="42" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I6" s="3">
         <v>3</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="53" customHeight="1">
@@ -3162,24 +3213,24 @@
       <c r="E7" s="3"/>
       <c r="F7" s="35"/>
       <c r="G7" s="42" t="s">
+        <v>145</v>
+      </c>
+      <c r="H7" s="42" t="s">
         <v>146</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>147</v>
       </c>
       <c r="I7" s="3">
         <v>2.5</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="28" customHeight="1">
       <c r="A8" s="44" t="s">
+        <v>147</v>
+      </c>
+      <c r="B8" s="3" t="s">
         <v>148</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>149</v>
       </c>
       <c r="C8" s="4">
         <v>43256</v>
@@ -3188,31 +3239,31 @@
         <v>43257</v>
       </c>
       <c r="E8" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="F8" s="35" t="s">
         <v>150</v>
       </c>
-      <c r="F8" s="35" t="s">
+      <c r="G8" s="42" t="s">
         <v>151</v>
       </c>
-      <c r="G8" s="42" t="s">
-        <v>152</v>
-      </c>
       <c r="H8" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I8" s="68">
         <v>0.67</v>
       </c>
       <c r="J8" s="68" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="K8" s="3"/>
     </row>
     <row r="9" spans="1:11" s="51" customFormat="1" ht="70" customHeight="1">
       <c r="A9" s="48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C9" s="50">
         <v>43256</v>
@@ -3221,16 +3272,16 @@
         <v>43259</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G9" s="42" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H9" s="42" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="I9" s="69"/>
       <c r="J9" s="69"/>
@@ -3238,7 +3289,7 @@
     </row>
     <row r="10" spans="1:11" ht="25" customHeight="1">
       <c r="A10" s="45" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>121</v>
@@ -3256,21 +3307,21 @@
         <v>122</v>
       </c>
       <c r="G10" s="42" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="42" t="s">
         <v>160</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>161</v>
       </c>
       <c r="I10" s="3">
         <v>0.5</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="25" customHeight="1">
       <c r="A11" s="45" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>121</v>
@@ -3288,21 +3339,21 @@
         <v>122</v>
       </c>
       <c r="G11" s="42" t="s">
+        <v>161</v>
+      </c>
+      <c r="H11" s="42" t="s">
         <v>162</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>163</v>
       </c>
       <c r="I11" s="3">
         <v>1.5</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
       <c r="A12" s="45" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>121</v>
@@ -3320,10 +3371,10 @@
         <v>122</v>
       </c>
       <c r="G12" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="H12" s="42" t="s">
         <v>166</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>167</v>
       </c>
       <c r="I12" s="3">
         <v>4</v>
@@ -3338,21 +3389,21 @@
       <c r="E13" s="3"/>
       <c r="F13" s="35"/>
       <c r="G13" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="H13" s="52" t="s">
         <v>168</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>169</v>
       </c>
       <c r="I13" s="3">
         <v>1</v>
       </c>
       <c r="J13" s="45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
       <c r="A14" s="45" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>121</v>
@@ -3370,16 +3421,16 @@
         <v>122</v>
       </c>
       <c r="G14" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="H14" s="35" t="s">
         <v>173</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>174</v>
       </c>
       <c r="I14" s="3">
         <v>2.5</v>
       </c>
       <c r="J14" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
@@ -3390,10 +3441,10 @@
       <c r="E15" s="3"/>
       <c r="F15" s="35"/>
       <c r="G15" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="H15" s="35" t="s">
         <v>175</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>176</v>
       </c>
       <c r="I15" s="3">
         <v>2.5</v>
@@ -3408,37 +3459,61 @@
       <c r="E16" s="3"/>
       <c r="F16" s="35"/>
       <c r="G16" s="35" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="H16" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="I16" s="3">
         <v>1.5</v>
       </c>
       <c r="J16" s="45"/>
     </row>
-    <row r="17" spans="1:10" ht="25" customHeight="1">
+    <row r="17" spans="1:10" s="47" customFormat="1" ht="68" customHeight="1">
       <c r="A17" s="45" t="s">
+        <v>178</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="35"/>
+      <c r="G17" s="35"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="45"/>
+    </row>
+    <row r="18" spans="1:10" ht="25" customHeight="1">
+      <c r="A18" s="45" t="s">
         <v>133</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B18" s="3" t="s">
         <v>121</v>
       </c>
-      <c r="C17" s="4">
+      <c r="C18" s="4">
         <v>43250</v>
       </c>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3" t="s">
+      <c r="D18" s="4">
+        <v>43299</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="F17" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="G17" s="43"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
+      <c r="F18" s="35" t="s">
+        <v>179</v>
+      </c>
+      <c r="G18" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="J18" s="45" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:I2"/>
@@ -3448,7 +3523,7 @@
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F18:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F19:F1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14560" tabRatio="860" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目梳理20150708" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="185">
   <si>
     <t>类型</t>
   </si>
@@ -738,15 +738,19 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2018/7/18 PM 6:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>2018/7/18 PM 6:00:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
     <t>完成新建公文开发</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵日朋</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/7/18 PM 8:00:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1711,6 +1715,36 @@
     <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1729,41 +1763,11 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="100">
@@ -2233,26 +2237,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="57" t="s">
+      <c r="A1" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="63" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="53" t="s">
+      <c r="C1" s="64"/>
+      <c r="D1" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="54"/>
-      <c r="F1" s="55" t="s">
+      <c r="E1" s="64"/>
+      <c r="F1" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="53"/>
-      <c r="H1" s="53"/>
-      <c r="I1" s="56"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="66"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="58"/>
+      <c r="A2" s="68"/>
       <c r="B2" s="7" t="s">
         <v>4</v>
       </c>
@@ -2279,7 +2283,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="54" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="10" t="s">
@@ -2308,7 +2312,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="60"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="16" t="s">
         <v>14</v>
       </c>
@@ -2335,7 +2339,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="60"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="19" t="s">
         <v>18</v>
       </c>
@@ -2354,7 +2358,7 @@
       <c r="I5" s="25"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="60"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="12" t="s">
         <v>21</v>
       </c>
@@ -2379,7 +2383,7 @@
       <c r="I6" s="25"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="60"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="12" t="s">
         <v>27</v>
       </c>
@@ -2406,7 +2410,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="60"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="12" t="s">
         <v>35</v>
       </c>
@@ -2423,7 +2427,7 @@
       <c r="I8" s="25"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="60"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="12" t="s">
         <v>36</v>
       </c>
@@ -2448,7 +2452,7 @@
       <c r="I9" s="25"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="60"/>
+      <c r="A10" s="55"/>
       <c r="B10" s="12" t="s">
         <v>43</v>
       </c>
@@ -2473,7 +2477,7 @@
       <c r="I10" s="25"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="60"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="12" t="s">
         <v>46</v>
       </c>
@@ -2498,7 +2502,7 @@
       <c r="I11" s="34"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="60"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="12" t="s">
         <v>53</v>
       </c>
@@ -2521,7 +2525,7 @@
       <c r="I12" s="25"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="60"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="12" t="s">
         <v>58</v>
       </c>
@@ -2548,7 +2552,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="60"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="12"/>
       <c r="C14" s="11"/>
       <c r="D14" s="12" t="s">
@@ -2569,7 +2573,7 @@
       <c r="I14" s="25"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="60"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="12"/>
       <c r="C15" s="11"/>
       <c r="D15" s="12" t="s">
@@ -2592,7 +2596,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="60"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="12" t="s">
         <v>74</v>
       </c>
@@ -2619,7 +2623,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="60"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="12" t="s">
         <v>81</v>
       </c>
@@ -2644,7 +2648,7 @@
       <c r="I17" s="25"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="60"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="12" t="s">
         <v>84</v>
       </c>
@@ -2669,7 +2673,7 @@
       <c r="I18" s="25"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="60"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="12" t="s">
         <v>86</v>
       </c>
@@ -2686,7 +2690,7 @@
       <c r="I19" s="25"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="61"/>
+      <c r="A20" s="56"/>
       <c r="B20" s="12" t="s">
         <v>87</v>
       </c>
@@ -2711,18 +2715,18 @@
       <c r="I20" s="25"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="59" t="s">
+      <c r="A21" s="54" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="26" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="27"/>
-      <c r="D21" s="62" t="s">
+      <c r="D21" s="57" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="28"/>
-      <c r="F21" s="62" t="s">
+      <c r="F21" s="57" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="15"/>
@@ -2730,46 +2734,46 @@
       <c r="I21" s="25"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="26" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="27"/>
-      <c r="D22" s="63"/>
+      <c r="D22" s="58"/>
       <c r="E22" s="28"/>
-      <c r="F22" s="63"/>
+      <c r="F22" s="58"/>
       <c r="G22" s="15"/>
       <c r="H22" s="29"/>
       <c r="I22" s="25"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="26" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="27"/>
-      <c r="D23" s="63"/>
+      <c r="D23" s="58"/>
       <c r="E23" s="28"/>
-      <c r="F23" s="63"/>
+      <c r="F23" s="58"/>
       <c r="G23" s="15"/>
       <c r="H23" s="29"/>
       <c r="I23" s="25"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="30" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="27"/>
-      <c r="D24" s="64"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="28"/>
-      <c r="F24" s="63"/>
+      <c r="F24" s="58"/>
       <c r="G24" s="15"/>
       <c r="H24" s="29"/>
       <c r="I24" s="25"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="26" t="s">
         <v>97</v>
       </c>
@@ -2778,13 +2782,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="28"/>
-      <c r="F25" s="63"/>
+      <c r="F25" s="58"/>
       <c r="G25" s="15"/>
       <c r="H25" s="29"/>
       <c r="I25" s="25"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="26" t="s">
         <v>98</v>
       </c>
@@ -2793,13 +2797,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="28"/>
-      <c r="F26" s="63"/>
+      <c r="F26" s="58"/>
       <c r="G26" s="15"/>
       <c r="H26" s="29"/>
       <c r="I26" s="25"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="26" t="s">
         <v>99</v>
       </c>
@@ -2808,13 +2812,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="28"/>
-      <c r="F27" s="63"/>
+      <c r="F27" s="58"/>
       <c r="G27" s="15"/>
       <c r="H27" s="29"/>
       <c r="I27" s="25"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="31" t="s">
         <v>100</v>
       </c>
@@ -2823,13 +2827,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="28"/>
-      <c r="F28" s="63"/>
+      <c r="F28" s="58"/>
       <c r="G28" s="15"/>
       <c r="H28" s="29"/>
       <c r="I28" s="25"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="61"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="30" t="s">
         <v>101</v>
       </c>
@@ -2838,13 +2842,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="28"/>
-      <c r="F29" s="64"/>
+      <c r="F29" s="59"/>
       <c r="G29" s="15"/>
       <c r="H29" s="29"/>
       <c r="I29" s="25"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="59" t="s">
+      <c r="A30" s="54" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="10" t="s">
@@ -2855,7 +2859,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="13"/>
-      <c r="F30" s="65" t="s">
+      <c r="F30" s="60" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="15"/>
@@ -2863,7 +2867,7 @@
       <c r="I30" s="25"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="10" t="s">
         <v>105</v>
       </c>
@@ -2872,13 +2876,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="13"/>
-      <c r="F31" s="66"/>
+      <c r="F31" s="61"/>
       <c r="G31" s="15"/>
       <c r="H31" s="21"/>
       <c r="I31" s="25"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="60"/>
+      <c r="A32" s="55"/>
       <c r="B32" s="12" t="s">
         <v>107</v>
       </c>
@@ -2887,13 +2891,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="13"/>
-      <c r="F32" s="66"/>
+      <c r="F32" s="61"/>
       <c r="G32" s="15"/>
       <c r="H32" s="21"/>
       <c r="I32" s="25"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="60"/>
+      <c r="A33" s="55"/>
       <c r="B33" s="12" t="s">
         <v>109</v>
       </c>
@@ -2902,13 +2906,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="13"/>
-      <c r="F33" s="66"/>
+      <c r="F33" s="61"/>
       <c r="G33" s="15"/>
       <c r="H33" s="21"/>
       <c r="I33" s="25"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="60"/>
+      <c r="A34" s="55"/>
       <c r="B34" s="12" t="s">
         <v>111</v>
       </c>
@@ -2917,13 +2921,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="13"/>
-      <c r="F34" s="66"/>
+      <c r="F34" s="61"/>
       <c r="G34" s="15"/>
       <c r="H34" s="21"/>
       <c r="I34" s="25"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="60"/>
+      <c r="A35" s="55"/>
       <c r="B35" s="12" t="s">
         <v>113</v>
       </c>
@@ -2932,13 +2936,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="13"/>
-      <c r="F35" s="66"/>
+      <c r="F35" s="61"/>
       <c r="G35" s="15"/>
       <c r="H35" s="21"/>
       <c r="I35" s="25"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="60"/>
+      <c r="A36" s="55"/>
       <c r="B36" s="12" t="s">
         <v>114</v>
       </c>
@@ -2947,13 +2951,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="13"/>
-      <c r="F36" s="66"/>
+      <c r="F36" s="61"/>
       <c r="G36" s="15"/>
       <c r="H36" s="21"/>
       <c r="I36" s="25"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="60"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="12" t="s">
         <v>115</v>
       </c>
@@ -2962,13 +2966,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="13"/>
-      <c r="F37" s="66"/>
+      <c r="F37" s="61"/>
       <c r="G37" s="15"/>
       <c r="H37" s="21"/>
       <c r="I37" s="25"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="61"/>
+      <c r="A38" s="56"/>
       <c r="B38" s="32" t="s">
         <v>116</v>
       </c>
@@ -2977,23 +2981,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="13"/>
-      <c r="F38" s="67"/>
+      <c r="F38" s="62"/>
       <c r="G38" s="15"/>
       <c r="H38" s="21"/>
       <c r="I38" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A20"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="F21:F29"/>
     <mergeCell ref="F30:F38"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A20"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3012,8 +3016,8 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I21" sqref="I21"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -3250,10 +3254,10 @@
       <c r="H8" s="42" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="68">
+      <c r="I8" s="69">
         <v>0.67</v>
       </c>
-      <c r="J8" s="68" t="s">
+      <c r="J8" s="69" t="s">
         <v>158</v>
       </c>
       <c r="K8" s="3"/>
@@ -3283,8 +3287,8 @@
       <c r="H9" s="42" t="s">
         <v>155</v>
       </c>
-      <c r="I9" s="69"/>
-      <c r="J9" s="69"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
       <c r="K9" s="49"/>
     </row>
     <row r="10" spans="1:11" ht="25" customHeight="1">
@@ -3479,7 +3483,7 @@
       <c r="E17" s="3"/>
       <c r="F17" s="35"/>
       <c r="G17" s="35"/>
-      <c r="H17" s="70"/>
+      <c r="H17" s="53"/>
       <c r="I17" s="3"/>
       <c r="J17" s="45"/>
     </row>
@@ -3497,22 +3501,22 @@
         <v>43299</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>126</v>
+        <v>183</v>
       </c>
       <c r="F18" s="35" t="s">
         <v>179</v>
       </c>
       <c r="G18" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="H18" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="I18" s="3">
+        <v>2</v>
+      </c>
+      <c r="J18" s="45" t="s">
         <v>182</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="I18" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J18" s="45" t="s">
-        <v>183</v>
       </c>
     </row>
   </sheetData>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -4,14 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14580" tabRatio="860" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="3700" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目梳理20150708" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="问题与任务" sheetId="16" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">问题与任务!$A$1:$I$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">问题与任务!$A$1:$G$2</definedName>
   </definedNames>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
   <si>
     <t>类型</t>
   </si>
@@ -469,10 +469,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>登记时间</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>高</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -485,14 +481,6 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>计划完成日期</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>页面闪退问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>赵日朋</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
@@ -509,248 +497,43 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>拟文问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>取回、回退功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>领导意见</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>新建公文开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
     <t>备注</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>待开发,功能按钮已添加</t>
+    <t>1、新建公文功能开发（附带上传文件问题处理）</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>同时测试页面闪退问题</t>
+    <t>2018/4/24  PM 8:30:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2018/6/2  PM 16:00:00</t>
+    <t>2、传阅功能开发</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2018/6/2  AM 11:00:00</t>
+    <t>3、分组传阅功能开发</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>进行中</t>
+    <t>2018/4/24  PM 1:30:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2018/6/4  PM 16:00:00</t>
+    <t>2018/4/24  PM 3:30:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>已了解功能，具体实现发现问题，待询问。</t>
+    <t>2018/4/22  PM 1:00:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>修改问题（领导意见页面逻辑完全按照廊坊规划修改），同时包含我这边问题（无数据点击页面闪退），故工时2.5小时，实际3.5小时</t>
+    <t>2018/4/24  PM 6:00:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>已修改完毕（对比安卓领导意见功能，完成修改问题）</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/4  PM 13:00:01</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/4  PM 17:00:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/4  PM 20:30:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>IOS版本更新开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>高</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵日朋</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/6  PM 18:00:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1)“我的”-&gt;“关于”页面，具体见</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="3" tint="0.39997558519241921"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">附注201806051048
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>2)首页2)本人查询、本局查询，更改图标；</t>
-    </r>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵日朋</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>拟文缓存问题修改</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/6  PM 18:40:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/6  PM 18:10:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击消息提示  无法打开案卷  且消息消失</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成关于页面+更换图标+更新</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/7  AM 10:30:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/7  AM 11:00:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/7  AM 9:00:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/7  AM 10:30:02</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>拟文清楚缓存功能修改测试完成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改消息页面无法进入下级页面问题</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/20  PM 14:20:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/20  PM 18:20:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/21  AM 9:10:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/21  AM 10:40:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>消息推送功能集成幵发
-1)消息推送内容按安卓风格；
-2)各种类型未读消息推送：公文案卷、通知、传阅消息、回退消息、督办消息</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>集成个推SDK推送服务，咨询个推官方支持，解决接收不到通知的问题。</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>通讯录功能开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/28  AM 9:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/28  AM 12:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/28  PM 3:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/28  PM 5:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/29  PM 2:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成通讯录功能开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>7月</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>已完成</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/6/29  PM 1:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/7/18 PM 6:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成新建公文开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵日朋</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/7/18 PM 8:00:00</t>
+    <t>2018/4/24  PM 3:30:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -758,7 +541,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -875,24 +658,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="3" tint="0.39997558519241921"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -922,7 +691,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1221,47 +990,8 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="100">
+  <cellStyleXfs count="108">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1394,170 +1124,194 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1568,9 +1322,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1673,24 +1424,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1700,23 +1439,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1745,32 +1484,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="100">
+  <cellStyles count="108">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1810,6 +1525,10 @@
     <cellStyle name="超链接" xfId="94" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="96" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="98" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="100" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1870,6 +1589,10 @@
     <cellStyle name="访问过的超链接" xfId="95" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="97" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="99" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="101" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2237,767 +1960,767 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="63" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="63" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="64"/>
-      <c r="F1" s="65" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="66"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="7" t="s">
+      <c r="A2" s="48"/>
+      <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="7" t="s">
+      <c r="I2" s="6" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="54" t="s">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="G3" s="14" t="s">
+      <c r="G3" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="33" t="s">
+      <c r="I3" s="32" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="55"/>
-      <c r="B4" s="16" t="s">
+      <c r="A4" s="50"/>
+      <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="11" t="s">
+      <c r="C4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="13" t="s">
+      <c r="E4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="55"/>
-      <c r="B5" s="19" t="s">
+      <c r="A5" s="50"/>
+      <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="19" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="17" t="s">
+      <c r="D5" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="14" t="s">
+      <c r="E5" s="12"/>
+      <c r="F5" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="15"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="25"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="55"/>
-      <c r="B6" s="12" t="s">
+      <c r="A6" s="50"/>
+      <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="D6" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="H6" s="21" t="s">
+      <c r="H6" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I6" s="25"/>
+      <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="55"/>
-      <c r="B7" s="12" t="s">
+      <c r="A7" s="50"/>
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="12" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="13" t="s">
+      <c r="E7" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="21" t="s">
+      <c r="H7" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="25" t="s">
+      <c r="I7" s="24" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="55"/>
-      <c r="B8" s="12" t="s">
+      <c r="A8" s="50"/>
+      <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C8" s="11"/>
-      <c r="D8" s="12" t="s">
+      <c r="C8" s="10"/>
+      <c r="D8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="14" t="s">
+      <c r="E8" s="12"/>
+      <c r="F8" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="21"/>
-      <c r="I8" s="25"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="55"/>
-      <c r="B9" s="12" t="s">
+      <c r="A9" s="50"/>
+      <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="D9" s="12" t="s">
+      <c r="D9" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="E9" s="13" t="s">
+      <c r="E9" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="H9" s="23" t="s">
+      <c r="H9" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="I9" s="25"/>
+      <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="12" t="s">
+      <c r="A10" s="50"/>
+      <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="13" t="s">
+      <c r="E10" s="12" t="s">
         <v>45</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="25"/>
+      <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="55"/>
-      <c r="B11" s="12" t="s">
+      <c r="A11" s="50"/>
+      <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="13" t="s">
+      <c r="E11" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="24" t="s">
+      <c r="H11" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I11" s="34"/>
+      <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="55"/>
-      <c r="B12" s="12" t="s">
+      <c r="A12" s="50"/>
+      <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="E12" s="13" t="s">
+      <c r="E12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="F12" s="14"/>
-      <c r="G12" s="15" t="s">
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="H12" s="21" t="s">
+      <c r="H12" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I12" s="25"/>
+      <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="55"/>
-      <c r="B13" s="12" t="s">
+      <c r="A13" s="50"/>
+      <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D13" s="12" t="s">
+      <c r="D13" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="E13" s="13" t="s">
+      <c r="E13" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="G13" s="15" t="s">
+      <c r="G13" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="H13" s="21" t="s">
+      <c r="H13" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="25" t="s">
+      <c r="I13" s="24" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="55"/>
-      <c r="B14" s="12"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="12" t="s">
+      <c r="A14" s="50"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="10"/>
+      <c r="D14" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E14" s="13" t="s">
+      <c r="E14" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G14" s="15" t="s">
+      <c r="G14" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="H14" s="24" t="s">
+      <c r="H14" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I14" s="25"/>
+      <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="55"/>
-      <c r="B15" s="12"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="12" t="s">
+      <c r="A15" s="50"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="E15" s="13" t="s">
+      <c r="E15" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="H15" s="21" t="s">
+      <c r="H15" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="I15" s="34" t="s">
+      <c r="I15" s="33" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="55"/>
-      <c r="B16" s="12" t="s">
+      <c r="A16" s="50"/>
+      <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="11" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="13" t="s">
+      <c r="E16" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="G16" s="15" t="s">
+      <c r="G16" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="H16" s="25" t="s">
+      <c r="H16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="I16" s="25" t="s">
+      <c r="I16" s="24" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="55"/>
-      <c r="B17" s="12" t="s">
+      <c r="A17" s="50"/>
+      <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D17" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="E17" s="13" t="s">
+      <c r="E17" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="G17" s="15" t="s">
+      <c r="G17" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="H17" s="24" t="s">
+      <c r="H17" s="23" t="s">
         <v>52</v>
       </c>
-      <c r="I17" s="25"/>
+      <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="55"/>
-      <c r="B18" s="12" t="s">
+      <c r="A18" s="50"/>
+      <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D18" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="13" t="s">
+      <c r="E18" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="G18" s="15" t="s">
+      <c r="G18" s="14" t="s">
         <v>85</v>
       </c>
-      <c r="H18" s="21" t="s">
+      <c r="H18" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I18" s="25"/>
+      <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="55"/>
-      <c r="B19" s="12" t="s">
+      <c r="A19" s="50"/>
+      <c r="B19" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="C19" s="11"/>
-      <c r="D19" s="12" t="s">
+      <c r="C19" s="10"/>
+      <c r="D19" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="14" t="s">
+      <c r="E19" s="12"/>
+      <c r="F19" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="21"/>
-      <c r="I19" s="25"/>
+      <c r="G19" s="14"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="56"/>
-      <c r="B20" s="12" t="s">
+      <c r="A20" s="51"/>
+      <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="E20" s="13" t="s">
+      <c r="E20" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="G20" s="15" t="s">
+      <c r="G20" s="14" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="21" t="s">
+      <c r="H20" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="25"/>
+      <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="54" t="s">
+      <c r="A21" s="49" t="s">
         <v>90</v>
       </c>
-      <c r="B21" s="26" t="s">
+      <c r="B21" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="57" t="s">
+      <c r="C21" s="26"/>
+      <c r="D21" s="52" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="28"/>
-      <c r="F21" s="57" t="s">
+      <c r="E21" s="27"/>
+      <c r="F21" s="52" t="s">
         <v>93</v>
       </c>
-      <c r="G21" s="15"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="25"/>
+      <c r="G21" s="14"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="55"/>
-      <c r="B22" s="26" t="s">
+      <c r="A22" s="50"/>
+      <c r="B22" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="C22" s="27"/>
-      <c r="D22" s="58"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="58"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="25"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="55"/>
-      <c r="B23" s="26" t="s">
+      <c r="A23" s="50"/>
+      <c r="B23" s="25" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="27"/>
-      <c r="D23" s="58"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="58"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="25"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="53"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="55"/>
-      <c r="B24" s="30" t="s">
+      <c r="A24" s="50"/>
+      <c r="B24" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="C24" s="27"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="58"/>
-      <c r="G24" s="15"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="25"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="54"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="53"/>
+      <c r="G24" s="14"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="55"/>
-      <c r="B25" s="26" t="s">
+      <c r="A25" s="50"/>
+      <c r="B25" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26" t="s">
+      <c r="C25" s="26"/>
+      <c r="D25" s="25" t="s">
         <v>97</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="58"/>
-      <c r="G25" s="15"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="25"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="53"/>
+      <c r="G25" s="14"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="55"/>
-      <c r="B26" s="26" t="s">
+      <c r="A26" s="50"/>
+      <c r="B26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="26" t="s">
+      <c r="C26" s="26"/>
+      <c r="D26" s="25" t="s">
         <v>98</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="58"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="25"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="53"/>
+      <c r="G26" s="14"/>
+      <c r="H26" s="28"/>
+      <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="55"/>
-      <c r="B27" s="26" t="s">
+      <c r="A27" s="50"/>
+      <c r="B27" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="C27" s="27"/>
-      <c r="D27" s="26" t="s">
+      <c r="C27" s="26"/>
+      <c r="D27" s="25" t="s">
         <v>99</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="15"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="25"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="53"/>
+      <c r="G27" s="14"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="55"/>
-      <c r="B28" s="31" t="s">
+      <c r="A28" s="50"/>
+      <c r="B28" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="C28" s="27"/>
-      <c r="D28" s="26" t="s">
+      <c r="C28" s="26"/>
+      <c r="D28" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="58"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="25"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="53"/>
+      <c r="G28" s="14"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="56"/>
-      <c r="B29" s="30" t="s">
+      <c r="A29" s="51"/>
+      <c r="B29" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="26" t="s">
+      <c r="C29" s="26"/>
+      <c r="D29" s="25" t="s">
         <v>20</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="15"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="25"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="14"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="54" t="s">
+      <c r="A30" s="49" t="s">
         <v>102</v>
       </c>
-      <c r="B30" s="10" t="s">
+      <c r="B30" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="C30" s="11"/>
-      <c r="D30" s="12" t="s">
+      <c r="C30" s="10"/>
+      <c r="D30" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="E30" s="13"/>
-      <c r="F30" s="60" t="s">
+      <c r="E30" s="12"/>
+      <c r="F30" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="G30" s="15"/>
-      <c r="H30" s="21"/>
-      <c r="I30" s="25"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="20"/>
+      <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="10" t="s">
+      <c r="A31" s="50"/>
+      <c r="B31" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="11"/>
-      <c r="D31" s="12" t="s">
+      <c r="C31" s="10"/>
+      <c r="D31" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="E31" s="13"/>
-      <c r="F31" s="61"/>
-      <c r="G31" s="15"/>
-      <c r="H31" s="21"/>
-      <c r="I31" s="25"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="20"/>
+      <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="55"/>
-      <c r="B32" s="12" t="s">
+      <c r="A32" s="50"/>
+      <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="11"/>
-      <c r="D32" s="12" t="s">
+      <c r="C32" s="10"/>
+      <c r="D32" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="E32" s="13"/>
-      <c r="F32" s="61"/>
-      <c r="G32" s="15"/>
-      <c r="H32" s="21"/>
-      <c r="I32" s="25"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="55"/>
-      <c r="B33" s="12" t="s">
+      <c r="A33" s="50"/>
+      <c r="B33" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="C33" s="11"/>
-      <c r="D33" s="12" t="s">
+      <c r="C33" s="10"/>
+      <c r="D33" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="E33" s="13"/>
-      <c r="F33" s="61"/>
-      <c r="G33" s="15"/>
-      <c r="H33" s="21"/>
-      <c r="I33" s="25"/>
+      <c r="E33" s="12"/>
+      <c r="F33" s="56"/>
+      <c r="G33" s="14"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="55"/>
-      <c r="B34" s="12" t="s">
+      <c r="A34" s="50"/>
+      <c r="B34" s="11" t="s">
         <v>111</v>
       </c>
-      <c r="C34" s="11"/>
-      <c r="D34" s="12" t="s">
+      <c r="C34" s="10"/>
+      <c r="D34" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="E34" s="13"/>
-      <c r="F34" s="61"/>
-      <c r="G34" s="15"/>
-      <c r="H34" s="21"/>
-      <c r="I34" s="25"/>
+      <c r="E34" s="12"/>
+      <c r="F34" s="56"/>
+      <c r="G34" s="14"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="55"/>
-      <c r="B35" s="12" t="s">
+      <c r="A35" s="50"/>
+      <c r="B35" s="11" t="s">
         <v>113</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="12" t="s">
+      <c r="C35" s="10"/>
+      <c r="D35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E35" s="13"/>
-      <c r="F35" s="61"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="21"/>
-      <c r="I35" s="25"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="56"/>
+      <c r="G35" s="14"/>
+      <c r="H35" s="20"/>
+      <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="55"/>
-      <c r="B36" s="12" t="s">
+      <c r="A36" s="50"/>
+      <c r="B36" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="C36" s="11"/>
-      <c r="D36" s="12" t="s">
+      <c r="C36" s="10"/>
+      <c r="D36" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E36" s="13"/>
-      <c r="F36" s="61"/>
-      <c r="G36" s="15"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="25"/>
+      <c r="E36" s="12"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="14"/>
+      <c r="H36" s="20"/>
+      <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="55"/>
-      <c r="B37" s="12" t="s">
+      <c r="A37" s="50"/>
+      <c r="B37" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="C37" s="11"/>
-      <c r="D37" s="12" t="s">
+      <c r="C37" s="10"/>
+      <c r="D37" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E37" s="13"/>
-      <c r="F37" s="61"/>
-      <c r="G37" s="15"/>
-      <c r="H37" s="21"/>
-      <c r="I37" s="25"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="56"/>
+      <c r="G37" s="14"/>
+      <c r="H37" s="20"/>
+      <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="56"/>
-      <c r="B38" s="32" t="s">
+      <c r="A38" s="51"/>
+      <c r="B38" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C38" s="11"/>
-      <c r="D38" s="12" t="s">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E38" s="13"/>
-      <c r="F38" s="62"/>
-      <c r="G38" s="15"/>
-      <c r="H38" s="21"/>
-      <c r="I38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="57"/>
+      <c r="G38" s="14"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="F30:F38"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="F30:F38"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3013,521 +2736,129 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H24" sqref="H24"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="41.83203125" style="47" customWidth="1"/>
+    <col min="1" max="1" width="41.83203125" style="42" customWidth="1"/>
     <col min="2" max="2" width="9.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="10.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" style="36" customWidth="1"/>
-    <col min="7" max="7" width="25.33203125" style="41" customWidth="1"/>
-    <col min="8" max="8" width="21.83203125" style="38" customWidth="1"/>
-    <col min="9" max="9" width="15.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="51.1640625" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="1"/>
+    <col min="4" max="4" width="8.5" style="35" customWidth="1"/>
+    <col min="5" max="5" width="25.33203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" style="37" customWidth="1"/>
+    <col min="7" max="7" width="15.6640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="51.1640625" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="41" t="s">
         <v>118</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="24" customHeight="1">
+      <c r="A2" s="40" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C2" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="37" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="37" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="2" t="s">
+      <c r="D2" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="F2" s="39" t="s">
         <v>129</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="G2" s="3">
+        <v>5</v>
+      </c>
+      <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="27" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="39" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="24" customHeight="1">
-      <c r="A2" s="45" t="s">
-        <v>125</v>
-      </c>
-      <c r="B2" s="3" t="s">
+      <c r="F3" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="34" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="34" t="s">
         <v>121</v>
       </c>
-      <c r="C2" s="4">
-        <v>43250</v>
-      </c>
-      <c r="D2" s="4">
-        <v>43253</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G2" s="42">
-        <v>43251.833333333336</v>
-      </c>
-      <c r="H2" s="40">
-        <v>43251.958333333336</v>
-      </c>
-      <c r="I2" s="3">
-        <v>3</v>
-      </c>
-      <c r="J2" s="3"/>
-    </row>
-    <row r="3" spans="1:11" ht="21" customHeight="1">
-      <c r="A3" s="45" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C3" s="4">
-        <v>43250</v>
-      </c>
-      <c r="D3" s="4">
-        <v>43254</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F3" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G3" s="43"/>
-      <c r="H3" s="39"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="21" customHeight="1">
-      <c r="A4" s="45" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C4" s="4">
-        <v>43250</v>
-      </c>
-      <c r="D4" s="4">
-        <v>43253</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F4" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="42">
-        <v>43253.541666666664</v>
-      </c>
-      <c r="H4" s="42" t="s">
-        <v>137</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3</v>
-      </c>
-      <c r="J4" s="3" t="s">
+      <c r="E4" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F4" s="39" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="24" customHeight="1">
-      <c r="A5" s="45" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C5" s="4">
-        <v>43250</v>
-      </c>
-      <c r="D5" s="4">
-        <v>43254</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F5" s="35" t="s">
-        <v>139</v>
-      </c>
-      <c r="G5" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="H5" s="42">
-        <v>43253.5</v>
-      </c>
-      <c r="I5" s="3">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="24" customHeight="1">
-      <c r="A6" s="45"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G6" s="42" t="s">
-        <v>144</v>
-      </c>
-      <c r="H6" s="42" t="s">
-        <v>140</v>
-      </c>
-      <c r="I6" s="3">
-        <v>3</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="53" customHeight="1">
-      <c r="A7" s="45"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="35"/>
-      <c r="G7" s="42" t="s">
-        <v>145</v>
-      </c>
-      <c r="H7" s="42" t="s">
-        <v>146</v>
-      </c>
-      <c r="I7" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="28" customHeight="1">
-      <c r="A8" s="44" t="s">
-        <v>147</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C8" s="4">
-        <v>43256</v>
-      </c>
-      <c r="D8" s="4">
-        <v>43257</v>
-      </c>
-      <c r="E8" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="F8" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G8" s="42" t="s">
-        <v>151</v>
-      </c>
-      <c r="H8" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="I8" s="69">
-        <v>0.67</v>
-      </c>
-      <c r="J8" s="69" t="s">
-        <v>158</v>
-      </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" s="51" customFormat="1" ht="70" customHeight="1">
-      <c r="A9" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="C9" s="50">
-        <v>43256</v>
-      </c>
-      <c r="D9" s="50">
-        <v>43259</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="F9" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="G9" s="42" t="s">
-        <v>156</v>
-      </c>
-      <c r="H9" s="42" t="s">
-        <v>155</v>
-      </c>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="K9" s="49"/>
-    </row>
-    <row r="10" spans="1:11" ht="25" customHeight="1">
-      <c r="A10" s="45" t="s">
-        <v>154</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="50">
-        <v>43256</v>
-      </c>
-      <c r="D10" s="50">
-        <v>43257</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G10" s="42" t="s">
-        <v>159</v>
-      </c>
-      <c r="H10" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="I10" s="3">
-        <v>0.5</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="25" customHeight="1">
-      <c r="A11" s="45" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C11" s="50">
-        <v>43256</v>
-      </c>
-      <c r="D11" s="50">
-        <v>43258</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G11" s="42" t="s">
-        <v>161</v>
-      </c>
-      <c r="H11" s="42" t="s">
-        <v>162</v>
-      </c>
-      <c r="I11" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
-      <c r="A12" s="45" t="s">
-        <v>169</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C12" s="50">
-        <v>43270</v>
-      </c>
-      <c r="D12" s="50">
-        <v>43272</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>165</v>
-      </c>
-      <c r="H12" s="42" t="s">
-        <v>166</v>
-      </c>
-      <c r="I12" s="3">
-        <v>4</v>
-      </c>
-      <c r="J12" s="45"/>
-    </row>
-    <row r="13" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
-      <c r="A13" s="45"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="50"/>
-      <c r="D13" s="50"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="35"/>
-      <c r="G13" s="52" t="s">
-        <v>167</v>
-      </c>
-      <c r="H13" s="52" t="s">
-        <v>168</v>
-      </c>
-      <c r="I13" s="3">
-        <v>1</v>
-      </c>
-      <c r="J13" s="45" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
-      <c r="A14" s="45" t="s">
-        <v>171</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C14" s="50">
-        <v>43279</v>
-      </c>
-      <c r="D14" s="50">
-        <v>43280</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="35" t="s">
-        <v>122</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="H14" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="I14" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J14" s="45" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
-      <c r="A15" s="45"/>
-      <c r="B15" s="3"/>
-      <c r="C15" s="50"/>
-      <c r="D15" s="50"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="35"/>
-      <c r="G15" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="H15" s="35" t="s">
-        <v>175</v>
-      </c>
-      <c r="I15" s="3">
-        <v>2.5</v>
-      </c>
-      <c r="J15" s="45"/>
-    </row>
-    <row r="16" spans="1:11" s="47" customFormat="1" ht="68" customHeight="1">
-      <c r="A16" s="45"/>
-      <c r="B16" s="3"/>
-      <c r="C16" s="50"/>
-      <c r="D16" s="50"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="H16" s="35" t="s">
-        <v>176</v>
-      </c>
-      <c r="I16" s="3">
-        <v>1.5</v>
-      </c>
-      <c r="J16" s="45"/>
-    </row>
-    <row r="17" spans="1:10" s="47" customFormat="1" ht="68" customHeight="1">
-      <c r="A17" s="45" t="s">
-        <v>178</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="50"/>
-      <c r="D17" s="50"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35"/>
-      <c r="H17" s="53"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="45"/>
-    </row>
-    <row r="18" spans="1:10" ht="25" customHeight="1">
-      <c r="A18" s="45" t="s">
-        <v>133</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="C18" s="4">
-        <v>43250</v>
-      </c>
-      <c r="D18" s="4">
-        <v>43299</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>183</v>
-      </c>
-      <c r="F18" s="35" t="s">
-        <v>179</v>
-      </c>
-      <c r="G18" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="H18" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="I18" s="3">
+      <c r="G4" s="3">
         <v>2</v>
       </c>
-      <c r="J18" s="45" t="s">
-        <v>182</v>
-      </c>
-    </row>
+    </row>
+    <row r="5" spans="1:8" ht="24" customHeight="1"/>
+    <row r="6" spans="1:8" ht="27" customHeight="1"/>
   </sheetData>
-  <autoFilter ref="A1:I2"/>
-  <mergeCells count="2">
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-  </mergeCells>
+  <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1 F19:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D5:D1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="3700" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="860" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目梳理20150708" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
   <si>
     <t>类型</t>
   </si>
@@ -534,6 +534,30 @@
   </si>
   <si>
     <t>2018/4/24  PM 3:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、消息点击进入收阅箱，已阅未阅，填写阅读意见按钮及功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>5、文件查看图片左右滑动功能</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/4/24  PM 4:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/4/26  PM 1:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018/4/26  AM 10:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2018/4/26  AM 11:00:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -1439,6 +1463,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1455,33 +1506,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1960,26 +1984,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="46"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="48"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2006,7 +2030,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2035,7 +2059,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="50"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
@@ -2062,7 +2086,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="50"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
@@ -2081,7 +2105,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="50"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2106,7 +2130,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="50"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2133,7 +2157,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="50"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
@@ -2150,7 +2174,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="50"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
@@ -2175,7 +2199,7 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
@@ -2200,7 +2224,7 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="50"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -2225,7 +2249,7 @@
       <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="50"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
@@ -2248,7 +2272,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="50"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
@@ -2275,7 +2299,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="50"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
@@ -2296,7 +2320,7 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="50"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
@@ -2319,7 +2343,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="50"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
@@ -2346,7 +2370,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="50"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
@@ -2371,7 +2395,7 @@
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="50"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
@@ -2396,7 +2420,7 @@
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="50"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="11" t="s">
         <v>86</v>
       </c>
@@ -2413,7 +2437,7 @@
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="51"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -2438,18 +2462,18 @@
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="43" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="46" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="14"/>
@@ -2457,46 +2481,46 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="50"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="53"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="14"/>
       <c r="H22" s="28"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="50"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="53"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="14"/>
       <c r="H23" s="28"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="50"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="29" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="54"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="53"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="14"/>
       <c r="H24" s="28"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="50"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="25" t="s">
         <v>97</v>
       </c>
@@ -2505,13 +2529,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="53"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="14"/>
       <c r="H25" s="28"/>
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="50"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="25" t="s">
         <v>98</v>
       </c>
@@ -2520,13 +2544,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="27"/>
-      <c r="F26" s="53"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="14"/>
       <c r="H26" s="28"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="50"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="25" t="s">
         <v>99</v>
       </c>
@@ -2535,13 +2559,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="53"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="14"/>
       <c r="H27" s="28"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="50"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="30" t="s">
         <v>100</v>
       </c>
@@ -2550,13 +2574,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="F28" s="53"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="14"/>
       <c r="H28" s="28"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="51"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="29" t="s">
         <v>101</v>
       </c>
@@ -2565,13 +2589,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="54"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="14"/>
       <c r="H29" s="28"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="43" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2582,7 +2606,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="49" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="14"/>
@@ -2590,7 +2614,7 @@
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="9" t="s">
         <v>105</v>
       </c>
@@ -2599,13 +2623,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="56"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="14"/>
       <c r="H31" s="20"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
@@ -2614,13 +2638,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="56"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="14"/>
       <c r="H32" s="20"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="11" t="s">
         <v>109</v>
       </c>
@@ -2629,13 +2653,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="56"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="14"/>
       <c r="H33" s="20"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="50"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="11" t="s">
         <v>111</v>
       </c>
@@ -2644,13 +2668,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="56"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="14"/>
       <c r="H34" s="20"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="11" t="s">
         <v>113</v>
       </c>
@@ -2659,13 +2683,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="56"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="14"/>
       <c r="H35" s="20"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="50"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="11" t="s">
         <v>114</v>
       </c>
@@ -2674,13 +2698,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="56"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="14"/>
       <c r="H36" s="20"/>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="11" t="s">
         <v>115</v>
       </c>
@@ -2689,13 +2713,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="56"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="14"/>
       <c r="H37" s="20"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="51"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="31" t="s">
         <v>116</v>
       </c>
@@ -2704,23 +2728,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="57"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="14"/>
       <c r="H38" s="20"/>
       <c r="I38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A20"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="F21:F29"/>
     <mergeCell ref="F30:F38"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A20"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2740,7 +2764,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2852,13 +2876,57 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="24" customHeight="1"/>
-    <row r="6" spans="1:8" ht="27" customHeight="1"/>
+    <row r="5" spans="1:8" ht="34" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>137</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="39" t="s">
+        <v>141</v>
+      </c>
+      <c r="F5" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="29" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D6" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E6" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="F6" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G6" s="3">
+        <v>2.5</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D5:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D7:D1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="146">
   <si>
     <t>类型</t>
   </si>
@@ -560,12 +560,24 @@
     <t xml:space="preserve"> 2018/4/26  AM 11:00:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
+  <si>
+    <t>6、大厂项目问题修改</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/6  AM 9:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018/5/6  PM 12:40:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -688,6 +700,13 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1015,7 +1034,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="108">
+  <cellStyleXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1334,8 +1353,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1463,6 +1494,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1490,26 +1539,11 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="22" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="108">
+  <cellStyles count="112">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1553,6 +1587,8 @@
     <cellStyle name="超链接" xfId="102" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="104" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1617,6 +1653,8 @@
     <cellStyle name="访问过的超链接" xfId="103" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="105" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1984,26 +2022,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="55"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="57"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2030,7 +2068,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2059,7 +2097,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
@@ -2086,7 +2124,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="44"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
@@ -2105,7 +2143,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="44"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2130,7 +2168,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="44"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2157,7 +2195,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="44"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
@@ -2174,7 +2212,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="44"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
@@ -2199,7 +2237,7 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
@@ -2224,7 +2262,7 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="44"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -2249,7 +2287,7 @@
       <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="44"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
@@ -2272,7 +2310,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="44"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
@@ -2299,7 +2337,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="44"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
@@ -2320,7 +2358,7 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="44"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
@@ -2343,7 +2381,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="44"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
@@ -2370,7 +2408,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="44"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
@@ -2395,7 +2433,7 @@
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="44"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
@@ -2420,7 +2458,7 @@
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="44"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="11" t="s">
         <v>86</v>
       </c>
@@ -2437,7 +2475,7 @@
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="45"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -2462,18 +2500,18 @@
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="49" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="52" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="52" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="14"/>
@@ -2481,46 +2519,46 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="44"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="47"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="47"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="14"/>
       <c r="H22" s="28"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="44"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="47"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="47"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="14"/>
       <c r="H23" s="28"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="44"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="29" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="48"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="47"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="14"/>
       <c r="H24" s="28"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="44"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="25" t="s">
         <v>97</v>
       </c>
@@ -2529,13 +2567,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="47"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="14"/>
       <c r="H25" s="28"/>
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="44"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="25" t="s">
         <v>98</v>
       </c>
@@ -2544,13 +2582,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="27"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="14"/>
       <c r="H26" s="28"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="44"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="25" t="s">
         <v>99</v>
       </c>
@@ -2559,13 +2597,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="47"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="14"/>
       <c r="H27" s="28"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="44"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="30" t="s">
         <v>100</v>
       </c>
@@ -2574,13 +2612,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="F28" s="47"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="14"/>
       <c r="H28" s="28"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="45"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="29" t="s">
         <v>101</v>
       </c>
@@ -2589,13 +2627,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="48"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="14"/>
       <c r="H29" s="28"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2606,7 +2644,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="55" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="14"/>
@@ -2614,7 +2652,7 @@
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="9" t="s">
         <v>105</v>
       </c>
@@ -2623,13 +2661,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="50"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="14"/>
       <c r="H31" s="20"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
@@ -2638,13 +2676,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="50"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="14"/>
       <c r="H32" s="20"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="11" t="s">
         <v>109</v>
       </c>
@@ -2653,13 +2691,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="50"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="14"/>
       <c r="H33" s="20"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="44"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="11" t="s">
         <v>111</v>
       </c>
@@ -2668,13 +2706,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="14"/>
       <c r="H34" s="20"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="11" t="s">
         <v>113</v>
       </c>
@@ -2683,13 +2721,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="50"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="14"/>
       <c r="H35" s="20"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="44"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="11" t="s">
         <v>114</v>
       </c>
@@ -2698,13 +2736,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="50"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="14"/>
       <c r="H36" s="20"/>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="11" t="s">
         <v>115</v>
       </c>
@@ -2713,13 +2751,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="50"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="14"/>
       <c r="H37" s="20"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="45"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="31" t="s">
         <v>116</v>
       </c>
@@ -2728,23 +2766,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="51"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="14"/>
       <c r="H38" s="20"/>
       <c r="I38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="F30:F38"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="F30:F38"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2760,11 +2798,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
+      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2922,11 +2960,34 @@
         <v>2.5</v>
       </c>
     </row>
+    <row r="7" spans="1:8" ht="22" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D7" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="F7" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G7" s="3">
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D7:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D8:D1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
   <si>
     <t>类型</t>
   </si>
@@ -501,75 +501,15 @@
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>1、新建公文功能开发（附带上传文件问题处理）</t>
+    <t>1、测试问题修复</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2018/4/24  PM 8:30:00</t>
+    <t>2019/6/4 AM 9:00:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
   <si>
-    <t>2、传阅功能开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>3、分组传阅功能开发</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/4/24  PM 1:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/4/24  PM 3:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/4/22  PM 1:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/4/24  PM 6:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/4/24  PM 3:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>4、消息点击进入收阅箱，已阅未阅，填写阅读意见按钮及功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>5、文件查看图片左右滑动功能</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/4/24  PM 4:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/4/26  PM 1:30:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018/4/26  AM 10:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 2018/4/26  AM 11:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>6、大厂项目问题修改</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/6  AM 9:00:00</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2018/5/6  PM 12:40:00</t>
+    <t>2019/6/4 AM 11:30:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -577,7 +517,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -700,13 +640,6 @@
       <name val="宋体"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1034,7 +967,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="112">
+  <cellStyleXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1365,8 +1298,20 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1494,6 +1439,33 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1512,38 +1484,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="22" fontId="17" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="112">
+  <cellStyles count="116">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1589,6 +1531,8 @@
     <cellStyle name="超链接" xfId="106" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="108" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1655,6 +1599,8 @@
     <cellStyle name="访问过的超链接" xfId="107" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="109" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1668,6 +1614,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>218376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2895598</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>1942215</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="1559619286887.jpg"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10706100" y="396176"/>
+          <a:ext cx="2362198" cy="1723839"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2022,26 +2017,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="52" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="53"/>
+      <c r="D1" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="53"/>
+      <c r="F1" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="46"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="55"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="48"/>
+      <c r="A2" s="57"/>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2068,7 +2063,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2097,7 +2092,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="50"/>
+      <c r="A4" s="44"/>
       <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
@@ -2124,7 +2119,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="50"/>
+      <c r="A5" s="44"/>
       <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
@@ -2143,7 +2138,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="50"/>
+      <c r="A6" s="44"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2168,7 +2163,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="50"/>
+      <c r="A7" s="44"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2195,7 +2190,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="50"/>
+      <c r="A8" s="44"/>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
@@ -2212,7 +2207,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="50"/>
+      <c r="A9" s="44"/>
       <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
@@ -2237,7 +2232,7 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="44"/>
       <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
@@ -2262,7 +2257,7 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="50"/>
+      <c r="A11" s="44"/>
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -2287,7 +2282,7 @@
       <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="50"/>
+      <c r="A12" s="44"/>
       <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
@@ -2310,7 +2305,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="50"/>
+      <c r="A13" s="44"/>
       <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
@@ -2337,7 +2332,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="50"/>
+      <c r="A14" s="44"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
@@ -2358,7 +2353,7 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="50"/>
+      <c r="A15" s="44"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
@@ -2381,7 +2376,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="50"/>
+      <c r="A16" s="44"/>
       <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
@@ -2408,7 +2403,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="50"/>
+      <c r="A17" s="44"/>
       <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
@@ -2433,7 +2428,7 @@
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="50"/>
+      <c r="A18" s="44"/>
       <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
@@ -2458,7 +2453,7 @@
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="50"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="11" t="s">
         <v>86</v>
       </c>
@@ -2475,7 +2470,7 @@
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="51"/>
+      <c r="A20" s="45"/>
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -2500,18 +2495,18 @@
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="43" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="46" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="46" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="14"/>
@@ -2519,46 +2514,46 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="50"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="47"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="53"/>
+      <c r="F22" s="47"/>
       <c r="G22" s="14"/>
       <c r="H22" s="28"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="50"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="47"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="53"/>
+      <c r="F23" s="47"/>
       <c r="G23" s="14"/>
       <c r="H23" s="28"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="50"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="29" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="54"/>
+      <c r="D24" s="48"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="53"/>
+      <c r="F24" s="47"/>
       <c r="G24" s="14"/>
       <c r="H24" s="28"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="50"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="25" t="s">
         <v>97</v>
       </c>
@@ -2567,13 +2562,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="53"/>
+      <c r="F25" s="47"/>
       <c r="G25" s="14"/>
       <c r="H25" s="28"/>
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="50"/>
+      <c r="A26" s="44"/>
       <c r="B26" s="25" t="s">
         <v>98</v>
       </c>
@@ -2582,13 +2577,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="27"/>
-      <c r="F26" s="53"/>
+      <c r="F26" s="47"/>
       <c r="G26" s="14"/>
       <c r="H26" s="28"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="50"/>
+      <c r="A27" s="44"/>
       <c r="B27" s="25" t="s">
         <v>99</v>
       </c>
@@ -2597,13 +2592,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="53"/>
+      <c r="F27" s="47"/>
       <c r="G27" s="14"/>
       <c r="H27" s="28"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="50"/>
+      <c r="A28" s="44"/>
       <c r="B28" s="30" t="s">
         <v>100</v>
       </c>
@@ -2612,13 +2607,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="F28" s="53"/>
+      <c r="F28" s="47"/>
       <c r="G28" s="14"/>
       <c r="H28" s="28"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="51"/>
+      <c r="A29" s="45"/>
       <c r="B29" s="29" t="s">
         <v>101</v>
       </c>
@@ -2627,13 +2622,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="54"/>
+      <c r="F29" s="48"/>
       <c r="G29" s="14"/>
       <c r="H29" s="28"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="43" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2644,7 +2639,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="49" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="14"/>
@@ -2652,7 +2647,7 @@
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="44"/>
       <c r="B31" s="9" t="s">
         <v>105</v>
       </c>
@@ -2661,13 +2656,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="56"/>
+      <c r="F31" s="50"/>
       <c r="G31" s="14"/>
       <c r="H31" s="20"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
@@ -2676,13 +2671,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="56"/>
+      <c r="F32" s="50"/>
       <c r="G32" s="14"/>
       <c r="H32" s="20"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="11" t="s">
         <v>109</v>
       </c>
@@ -2691,13 +2686,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="56"/>
+      <c r="F33" s="50"/>
       <c r="G33" s="14"/>
       <c r="H33" s="20"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="50"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="11" t="s">
         <v>111</v>
       </c>
@@ -2706,13 +2701,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="56"/>
+      <c r="F34" s="50"/>
       <c r="G34" s="14"/>
       <c r="H34" s="20"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="11" t="s">
         <v>113</v>
       </c>
@@ -2721,13 +2716,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="56"/>
+      <c r="F35" s="50"/>
       <c r="G35" s="14"/>
       <c r="H35" s="20"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="50"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="11" t="s">
         <v>114</v>
       </c>
@@ -2736,13 +2731,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="56"/>
+      <c r="F36" s="50"/>
       <c r="G36" s="14"/>
       <c r="H36" s="20"/>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="11" t="s">
         <v>115</v>
       </c>
@@ -2751,13 +2746,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="56"/>
+      <c r="F37" s="50"/>
       <c r="G37" s="14"/>
       <c r="H37" s="20"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="51"/>
+      <c r="A38" s="45"/>
       <c r="B38" s="31" t="s">
         <v>116</v>
       </c>
@@ -2766,23 +2761,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="57"/>
+      <c r="F38" s="51"/>
       <c r="G38" s="14"/>
       <c r="H38" s="20"/>
       <c r="I38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A20"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="F21:F29"/>
     <mergeCell ref="F30:F38"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A20"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2798,11 +2793,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G7" sqref="G7"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2844,7 +2839,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="24" customHeight="1">
+    <row r="2" spans="1:8" ht="172" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>128</v>
       </c>
@@ -2858,142 +2853,28 @@
         <v>121</v>
       </c>
       <c r="E2" s="39" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="F2" s="39" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G2" s="3">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="H2" s="3"/>
-    </row>
-    <row r="3" spans="1:8" ht="27" customHeight="1">
-      <c r="A3" s="40" t="s">
-        <v>130</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D3" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E3" s="39" t="s">
-        <v>134</v>
-      </c>
-      <c r="F3" s="39" t="s">
-        <v>135</v>
-      </c>
-      <c r="G3" s="3">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="34" customHeight="1">
-      <c r="A4" s="40" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D4" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E4" s="39" t="s">
-        <v>132</v>
-      </c>
-      <c r="F4" s="39" t="s">
-        <v>136</v>
-      </c>
-      <c r="G4" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="34" customHeight="1">
-      <c r="A5" s="40" t="s">
-        <v>137</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D5" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="39" t="s">
-        <v>141</v>
-      </c>
-      <c r="F5" s="39" t="s">
-        <v>142</v>
-      </c>
-      <c r="G5" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="29" customHeight="1">
-      <c r="A6" s="40" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="39" t="s">
-        <v>140</v>
-      </c>
-      <c r="F6" s="39" t="s">
-        <v>139</v>
-      </c>
-      <c r="G6" s="3">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="22" customHeight="1">
-      <c r="A7" s="40" t="s">
-        <v>143</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="39" t="s">
-        <v>144</v>
-      </c>
-      <c r="F7" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="G7" s="3">
-        <v>3</v>
-      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D8:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.35433070866141736" right="0.19685039370078741" top="0.31496062992125984" bottom="0.31496062992125984" header="0.39370078740157483" footer="0.39370078740157483"/>
   <pageSetup paperSize="9" scale="78" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="134">
   <si>
     <t>类型</t>
   </si>
@@ -510,6 +510,18 @@
   </si>
   <si>
     <t>2019/6/4 AM 11:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2、修复通知bug</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/7/4 AM 10:20:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/7/4 AM 11:30:00</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -967,7 +979,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="116">
+  <cellStyleXfs count="124">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1095,6 +1107,30 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1439,6 +1475,24 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1466,26 +1520,8 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="116">
+  <cellStyles count="124">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1533,6 +1569,10 @@
     <cellStyle name="超链接" xfId="110" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="112" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="114" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="116" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1601,6 +1641,10 @@
     <cellStyle name="访问过的超链接" xfId="111" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="113" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="115" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="117" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1621,7 +1665,7 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>218376</xdr:rowOff>
     </xdr:from>
@@ -1629,7 +1673,7 @@
       <xdr:col>7</xdr:col>
       <xdr:colOff>2895598</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>1942215</xdr:rowOff>
+      <xdr:rowOff>1830999</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1652,8 +1696,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10706100" y="396176"/>
-          <a:ext cx="2362198" cy="1723839"/>
+          <a:off x="10858500" y="396176"/>
+          <a:ext cx="2209798" cy="1612623"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2017,26 +2061,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="52" t="s">
+      <c r="B1" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="53"/>
-      <c r="D1" s="52" t="s">
+      <c r="C1" s="44"/>
+      <c r="D1" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="53"/>
-      <c r="F1" s="54" t="s">
+      <c r="E1" s="44"/>
+      <c r="F1" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="52"/>
-      <c r="H1" s="52"/>
-      <c r="I1" s="55"/>
+      <c r="G1" s="43"/>
+      <c r="H1" s="43"/>
+      <c r="I1" s="46"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="57"/>
+      <c r="A2" s="48"/>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2063,7 +2107,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="49" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2092,7 +2136,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="44"/>
+      <c r="A4" s="50"/>
       <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
@@ -2119,7 +2163,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="44"/>
+      <c r="A5" s="50"/>
       <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
@@ -2138,7 +2182,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="44"/>
+      <c r="A6" s="50"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2163,7 +2207,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="44"/>
+      <c r="A7" s="50"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2190,7 +2234,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="44"/>
+      <c r="A8" s="50"/>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
@@ -2207,7 +2251,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="44"/>
+      <c r="A9" s="50"/>
       <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
@@ -2232,7 +2276,7 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="44"/>
+      <c r="A10" s="50"/>
       <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
@@ -2257,7 +2301,7 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="44"/>
+      <c r="A11" s="50"/>
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -2282,7 +2326,7 @@
       <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="44"/>
+      <c r="A12" s="50"/>
       <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
@@ -2305,7 +2349,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="44"/>
+      <c r="A13" s="50"/>
       <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
@@ -2332,7 +2376,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="44"/>
+      <c r="A14" s="50"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
@@ -2353,7 +2397,7 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="44"/>
+      <c r="A15" s="50"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
@@ -2376,7 +2420,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="44"/>
+      <c r="A16" s="50"/>
       <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
@@ -2403,7 +2447,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="44"/>
+      <c r="A17" s="50"/>
       <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
@@ -2428,7 +2472,7 @@
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="44"/>
+      <c r="A18" s="50"/>
       <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
@@ -2453,7 +2497,7 @@
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="44"/>
+      <c r="A19" s="50"/>
       <c r="B19" s="11" t="s">
         <v>86</v>
       </c>
@@ -2470,7 +2514,7 @@
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="45"/>
+      <c r="A20" s="51"/>
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -2495,18 +2539,18 @@
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="49" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="46" t="s">
+      <c r="D21" s="52" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="46" t="s">
+      <c r="F21" s="52" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="14"/>
@@ -2514,46 +2558,46 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="44"/>
+      <c r="A22" s="50"/>
       <c r="B22" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="47"/>
+      <c r="D22" s="53"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="47"/>
+      <c r="F22" s="53"/>
       <c r="G22" s="14"/>
       <c r="H22" s="28"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="44"/>
+      <c r="A23" s="50"/>
       <c r="B23" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="47"/>
+      <c r="D23" s="53"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="47"/>
+      <c r="F23" s="53"/>
       <c r="G23" s="14"/>
       <c r="H23" s="28"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="44"/>
+      <c r="A24" s="50"/>
       <c r="B24" s="29" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="48"/>
+      <c r="D24" s="54"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="47"/>
+      <c r="F24" s="53"/>
       <c r="G24" s="14"/>
       <c r="H24" s="28"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="44"/>
+      <c r="A25" s="50"/>
       <c r="B25" s="25" t="s">
         <v>97</v>
       </c>
@@ -2562,13 +2606,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="47"/>
+      <c r="F25" s="53"/>
       <c r="G25" s="14"/>
       <c r="H25" s="28"/>
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="44"/>
+      <c r="A26" s="50"/>
       <c r="B26" s="25" t="s">
         <v>98</v>
       </c>
@@ -2577,13 +2621,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="27"/>
-      <c r="F26" s="47"/>
+      <c r="F26" s="53"/>
       <c r="G26" s="14"/>
       <c r="H26" s="28"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="44"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="25" t="s">
         <v>99</v>
       </c>
@@ -2592,13 +2636,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="47"/>
+      <c r="F27" s="53"/>
       <c r="G27" s="14"/>
       <c r="H27" s="28"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="44"/>
+      <c r="A28" s="50"/>
       <c r="B28" s="30" t="s">
         <v>100</v>
       </c>
@@ -2607,13 +2651,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="F28" s="47"/>
+      <c r="F28" s="53"/>
       <c r="G28" s="14"/>
       <c r="H28" s="28"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="45"/>
+      <c r="A29" s="51"/>
       <c r="B29" s="29" t="s">
         <v>101</v>
       </c>
@@ -2622,13 +2666,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="48"/>
+      <c r="F29" s="54"/>
       <c r="G29" s="14"/>
       <c r="H29" s="28"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="49" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2639,7 +2683,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="49" t="s">
+      <c r="F30" s="55" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="14"/>
@@ -2647,7 +2691,7 @@
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="44"/>
+      <c r="A31" s="50"/>
       <c r="B31" s="9" t="s">
         <v>105</v>
       </c>
@@ -2656,13 +2700,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="50"/>
+      <c r="F31" s="56"/>
       <c r="G31" s="14"/>
       <c r="H31" s="20"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="44"/>
+      <c r="A32" s="50"/>
       <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
@@ -2671,13 +2715,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="50"/>
+      <c r="F32" s="56"/>
       <c r="G32" s="14"/>
       <c r="H32" s="20"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="44"/>
+      <c r="A33" s="50"/>
       <c r="B33" s="11" t="s">
         <v>109</v>
       </c>
@@ -2686,13 +2730,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="50"/>
+      <c r="F33" s="56"/>
       <c r="G33" s="14"/>
       <c r="H33" s="20"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="44"/>
+      <c r="A34" s="50"/>
       <c r="B34" s="11" t="s">
         <v>111</v>
       </c>
@@ -2701,13 +2745,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="50"/>
+      <c r="F34" s="56"/>
       <c r="G34" s="14"/>
       <c r="H34" s="20"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="44"/>
+      <c r="A35" s="50"/>
       <c r="B35" s="11" t="s">
         <v>113</v>
       </c>
@@ -2716,13 +2760,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="50"/>
+      <c r="F35" s="56"/>
       <c r="G35" s="14"/>
       <c r="H35" s="20"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="44"/>
+      <c r="A36" s="50"/>
       <c r="B36" s="11" t="s">
         <v>114</v>
       </c>
@@ -2731,13 +2775,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="50"/>
+      <c r="F36" s="56"/>
       <c r="G36" s="14"/>
       <c r="H36" s="20"/>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="44"/>
+      <c r="A37" s="50"/>
       <c r="B37" s="11" t="s">
         <v>115</v>
       </c>
@@ -2746,13 +2790,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="50"/>
+      <c r="F37" s="56"/>
       <c r="G37" s="14"/>
       <c r="H37" s="20"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="45"/>
+      <c r="A38" s="51"/>
       <c r="B38" s="31" t="s">
         <v>116</v>
       </c>
@@ -2761,23 +2805,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="51"/>
+      <c r="F38" s="57"/>
       <c r="G38" s="14"/>
       <c r="H38" s="20"/>
       <c r="I38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A21:A29"/>
+    <mergeCell ref="A30:A38"/>
+    <mergeCell ref="D21:D24"/>
+    <mergeCell ref="F21:F29"/>
+    <mergeCell ref="F30:F38"/>
     <mergeCell ref="B1:C1"/>
     <mergeCell ref="D1:E1"/>
     <mergeCell ref="F1:I1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="A3:A20"/>
-    <mergeCell ref="A21:A29"/>
-    <mergeCell ref="A30:A38"/>
-    <mergeCell ref="D21:D24"/>
-    <mergeCell ref="F21:F29"/>
-    <mergeCell ref="F30:F38"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2793,11 +2837,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2839,7 +2883,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="172" customHeight="1">
+    <row r="2" spans="1:8" ht="156" customHeight="1">
       <c r="A2" s="40" t="s">
         <v>128</v>
       </c>
@@ -2862,12 +2906,36 @@
         <v>2.5</v>
       </c>
       <c r="H2" s="3"/>
+    </row>
+    <row r="3" spans="1:8" ht="65" customHeight="1">
+      <c r="A3" s="40" t="s">
+        <v>131</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E3" s="39" t="s">
+        <v>132</v>
+      </c>
+      <c r="F3" s="39" t="s">
+        <v>133</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D3:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D4:D1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>

--- a/大厂项目开发.xlsx
+++ b/大厂项目开发.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="22905"/>
   <workbookPr updateLinks="never" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14540" tabRatio="860" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14520" tabRatio="860" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="项目梳理20150708" sheetId="1" state="hidden" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="141">
   <si>
     <t>类型</t>
   </si>
@@ -522,6 +522,34 @@
   </si>
   <si>
     <t>2019/7/4 AM 11:30:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>3、廊坊项目</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/8/13  PM 4:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/8/13  PM 5:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/8/19  AM 9:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2019/8/19  AM 13:00:00</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>4、廊坊项目：会签意见接口SignOpinion.ashx需要增加一个参数 label，把会签控件的label传过来</t>
     <phoneticPr fontId="13" type="noConversion"/>
   </si>
 </sst>
@@ -979,7 +1007,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="124">
+  <cellStyleXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1346,8 +1374,44 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1475,6 +1539,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="45" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1493,35 +1587,8 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="124">
+  <cellStyles count="136">
     <cellStyle name="百分比 2" xfId="2"/>
     <cellStyle name="差 2" xfId="8"/>
     <cellStyle name="差 3" xfId="10"/>
@@ -1573,6 +1640,12 @@
     <cellStyle name="超链接" xfId="118" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="120" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="122" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="124" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="126" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="128" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="130" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="132" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="134" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="14" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="15" builtinId="9" hidden="1"/>
@@ -1645,6 +1718,12 @@
     <cellStyle name="访问过的超链接" xfId="119" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="121" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="123" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="125" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="127" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="129" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="131" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="133" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="135" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2061,26 +2140,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="19.5" customHeight="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="57" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="44"/>
-      <c r="D1" s="43" t="s">
+      <c r="C1" s="54"/>
+      <c r="D1" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="44"/>
-      <c r="F1" s="45" t="s">
+      <c r="E1" s="54"/>
+      <c r="F1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="43"/>
-      <c r="H1" s="43"/>
-      <c r="I1" s="46"/>
+      <c r="G1" s="53"/>
+      <c r="H1" s="53"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="2" spans="1:9" ht="31.5" customHeight="1">
-      <c r="A2" s="48"/>
+      <c r="A2" s="58"/>
       <c r="B2" s="6" t="s">
         <v>4</v>
       </c>
@@ -2107,7 +2186,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="28">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="44" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="9" t="s">
@@ -2136,7 +2215,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" ht="70">
-      <c r="A4" s="50"/>
+      <c r="A4" s="45"/>
       <c r="B4" s="15" t="s">
         <v>14</v>
       </c>
@@ -2163,7 +2242,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" ht="30">
-      <c r="A5" s="50"/>
+      <c r="A5" s="45"/>
       <c r="B5" s="18" t="s">
         <v>18</v>
       </c>
@@ -2182,7 +2261,7 @@
       <c r="I5" s="24"/>
     </row>
     <row r="6" spans="1:9" ht="28">
-      <c r="A6" s="50"/>
+      <c r="A6" s="45"/>
       <c r="B6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2207,7 +2286,7 @@
       <c r="I6" s="24"/>
     </row>
     <row r="7" spans="1:9" ht="98">
-      <c r="A7" s="50"/>
+      <c r="A7" s="45"/>
       <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
@@ -2234,7 +2313,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" ht="28">
-      <c r="A8" s="50"/>
+      <c r="A8" s="45"/>
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
@@ -2251,7 +2330,7 @@
       <c r="I8" s="24"/>
     </row>
     <row r="9" spans="1:9" ht="70">
-      <c r="A9" s="50"/>
+      <c r="A9" s="45"/>
       <c r="B9" s="11" t="s">
         <v>36</v>
       </c>
@@ -2276,7 +2355,7 @@
       <c r="I9" s="24"/>
     </row>
     <row r="10" spans="1:9" ht="20" customHeight="1">
-      <c r="A10" s="50"/>
+      <c r="A10" s="45"/>
       <c r="B10" s="11" t="s">
         <v>43</v>
       </c>
@@ -2301,7 +2380,7 @@
       <c r="I10" s="24"/>
     </row>
     <row r="11" spans="1:9" ht="42">
-      <c r="A11" s="50"/>
+      <c r="A11" s="45"/>
       <c r="B11" s="11" t="s">
         <v>46</v>
       </c>
@@ -2326,7 +2405,7 @@
       <c r="I11" s="33"/>
     </row>
     <row r="12" spans="1:9">
-      <c r="A12" s="50"/>
+      <c r="A12" s="45"/>
       <c r="B12" s="11" t="s">
         <v>53</v>
       </c>
@@ -2349,7 +2428,7 @@
       <c r="I12" s="24"/>
     </row>
     <row r="13" spans="1:9" ht="56">
-      <c r="A13" s="50"/>
+      <c r="A13" s="45"/>
       <c r="B13" s="11" t="s">
         <v>58</v>
       </c>
@@ -2376,7 +2455,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" ht="56">
-      <c r="A14" s="50"/>
+      <c r="A14" s="45"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="11" t="s">
@@ -2397,7 +2476,7 @@
       <c r="I14" s="24"/>
     </row>
     <row r="15" spans="1:9" ht="28">
-      <c r="A15" s="50"/>
+      <c r="A15" s="45"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="11" t="s">
@@ -2420,7 +2499,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" ht="70">
-      <c r="A16" s="50"/>
+      <c r="A16" s="45"/>
       <c r="B16" s="11" t="s">
         <v>74</v>
       </c>
@@ -2447,7 +2526,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" ht="56">
-      <c r="A17" s="50"/>
+      <c r="A17" s="45"/>
       <c r="B17" s="11" t="s">
         <v>81</v>
       </c>
@@ -2472,7 +2551,7 @@
       <c r="I17" s="24"/>
     </row>
     <row r="18" spans="1:9" ht="28">
-      <c r="A18" s="50"/>
+      <c r="A18" s="45"/>
       <c r="B18" s="11" t="s">
         <v>84</v>
       </c>
@@ -2497,7 +2576,7 @@
       <c r="I18" s="24"/>
     </row>
     <row r="19" spans="1:9" ht="28">
-      <c r="A19" s="50"/>
+      <c r="A19" s="45"/>
       <c r="B19" s="11" t="s">
         <v>86</v>
       </c>
@@ -2514,7 +2593,7 @@
       <c r="I19" s="24"/>
     </row>
     <row r="20" spans="1:9" ht="70">
-      <c r="A20" s="51"/>
+      <c r="A20" s="46"/>
       <c r="B20" s="11" t="s">
         <v>87</v>
       </c>
@@ -2539,18 +2618,18 @@
       <c r="I20" s="24"/>
     </row>
     <row r="21" spans="1:9" ht="30">
-      <c r="A21" s="49" t="s">
+      <c r="A21" s="44" t="s">
         <v>90</v>
       </c>
       <c r="B21" s="25" t="s">
         <v>91</v>
       </c>
       <c r="C21" s="26"/>
-      <c r="D21" s="52" t="s">
+      <c r="D21" s="47" t="s">
         <v>92</v>
       </c>
       <c r="E21" s="27"/>
-      <c r="F21" s="52" t="s">
+      <c r="F21" s="47" t="s">
         <v>93</v>
       </c>
       <c r="G21" s="14"/>
@@ -2558,46 +2637,46 @@
       <c r="I21" s="24"/>
     </row>
     <row r="22" spans="1:9" ht="30">
-      <c r="A22" s="50"/>
+      <c r="A22" s="45"/>
       <c r="B22" s="25" t="s">
         <v>94</v>
       </c>
       <c r="C22" s="26"/>
-      <c r="D22" s="53"/>
+      <c r="D22" s="48"/>
       <c r="E22" s="27"/>
-      <c r="F22" s="53"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="14"/>
       <c r="H22" s="28"/>
       <c r="I22" s="24"/>
     </row>
     <row r="23" spans="1:9" ht="30">
-      <c r="A23" s="50"/>
+      <c r="A23" s="45"/>
       <c r="B23" s="25" t="s">
         <v>95</v>
       </c>
       <c r="C23" s="26"/>
-      <c r="D23" s="53"/>
+      <c r="D23" s="48"/>
       <c r="E23" s="27"/>
-      <c r="F23" s="53"/>
+      <c r="F23" s="48"/>
       <c r="G23" s="14"/>
       <c r="H23" s="28"/>
       <c r="I23" s="24"/>
     </row>
     <row r="24" spans="1:9" ht="30">
-      <c r="A24" s="50"/>
+      <c r="A24" s="45"/>
       <c r="B24" s="29" t="s">
         <v>96</v>
       </c>
       <c r="C24" s="26"/>
-      <c r="D24" s="54"/>
+      <c r="D24" s="49"/>
       <c r="E24" s="27"/>
-      <c r="F24" s="53"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="14"/>
       <c r="H24" s="28"/>
       <c r="I24" s="24"/>
     </row>
     <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="50"/>
+      <c r="A25" s="45"/>
       <c r="B25" s="25" t="s">
         <v>97</v>
       </c>
@@ -2606,13 +2685,13 @@
         <v>97</v>
       </c>
       <c r="E25" s="27"/>
-      <c r="F25" s="53"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="14"/>
       <c r="H25" s="28"/>
       <c r="I25" s="24"/>
     </row>
     <row r="26" spans="1:9" ht="30">
-      <c r="A26" s="50"/>
+      <c r="A26" s="45"/>
       <c r="B26" s="25" t="s">
         <v>98</v>
       </c>
@@ -2621,13 +2700,13 @@
         <v>98</v>
       </c>
       <c r="E26" s="27"/>
-      <c r="F26" s="53"/>
+      <c r="F26" s="48"/>
       <c r="G26" s="14"/>
       <c r="H26" s="28"/>
       <c r="I26" s="24"/>
     </row>
     <row r="27" spans="1:9" ht="30">
-      <c r="A27" s="50"/>
+      <c r="A27" s="45"/>
       <c r="B27" s="25" t="s">
         <v>99</v>
       </c>
@@ -2636,13 +2715,13 @@
         <v>99</v>
       </c>
       <c r="E27" s="27"/>
-      <c r="F27" s="53"/>
+      <c r="F27" s="48"/>
       <c r="G27" s="14"/>
       <c r="H27" s="28"/>
       <c r="I27" s="24"/>
     </row>
     <row r="28" spans="1:9" ht="30">
-      <c r="A28" s="50"/>
+      <c r="A28" s="45"/>
       <c r="B28" s="30" t="s">
         <v>100</v>
       </c>
@@ -2651,13 +2730,13 @@
         <v>20</v>
       </c>
       <c r="E28" s="27"/>
-      <c r="F28" s="53"/>
+      <c r="F28" s="48"/>
       <c r="G28" s="14"/>
       <c r="H28" s="28"/>
       <c r="I28" s="24"/>
     </row>
     <row r="29" spans="1:9" ht="30">
-      <c r="A29" s="51"/>
+      <c r="A29" s="46"/>
       <c r="B29" s="29" t="s">
         <v>101</v>
       </c>
@@ -2666,13 +2745,13 @@
         <v>20</v>
       </c>
       <c r="E29" s="27"/>
-      <c r="F29" s="54"/>
+      <c r="F29" s="49"/>
       <c r="G29" s="14"/>
       <c r="H29" s="28"/>
       <c r="I29" s="24"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1">
-      <c r="A30" s="49" t="s">
+      <c r="A30" s="44" t="s">
         <v>102</v>
       </c>
       <c r="B30" s="9" t="s">
@@ -2683,7 +2762,7 @@
         <v>104</v>
       </c>
       <c r="E30" s="12"/>
-      <c r="F30" s="55" t="s">
+      <c r="F30" s="50" t="s">
         <v>93</v>
       </c>
       <c r="G30" s="14"/>
@@ -2691,7 +2770,7 @@
       <c r="I30" s="24"/>
     </row>
     <row r="31" spans="1:9" ht="20" customHeight="1">
-      <c r="A31" s="50"/>
+      <c r="A31" s="45"/>
       <c r="B31" s="9" t="s">
         <v>105</v>
       </c>
@@ -2700,13 +2779,13 @@
         <v>106</v>
       </c>
       <c r="E31" s="12"/>
-      <c r="F31" s="56"/>
+      <c r="F31" s="51"/>
       <c r="G31" s="14"/>
       <c r="H31" s="20"/>
       <c r="I31" s="24"/>
     </row>
     <row r="32" spans="1:9" ht="20" customHeight="1">
-      <c r="A32" s="50"/>
+      <c r="A32" s="45"/>
       <c r="B32" s="11" t="s">
         <v>107</v>
       </c>
@@ -2715,13 +2794,13 @@
         <v>108</v>
       </c>
       <c r="E32" s="12"/>
-      <c r="F32" s="56"/>
+      <c r="F32" s="51"/>
       <c r="G32" s="14"/>
       <c r="H32" s="20"/>
       <c r="I32" s="24"/>
     </row>
     <row r="33" spans="1:9" ht="20" customHeight="1">
-      <c r="A33" s="50"/>
+      <c r="A33" s="45"/>
       <c r="B33" s="11" t="s">
         <v>109</v>
       </c>
@@ -2730,13 +2809,13 @@
         <v>110</v>
       </c>
       <c r="E33" s="12"/>
-      <c r="F33" s="56"/>
+      <c r="F33" s="51"/>
       <c r="G33" s="14"/>
       <c r="H33" s="20"/>
       <c r="I33" s="24"/>
     </row>
     <row r="34" spans="1:9">
-      <c r="A34" s="50"/>
+      <c r="A34" s="45"/>
       <c r="B34" s="11" t="s">
         <v>111</v>
       </c>
@@ -2745,13 +2824,13 @@
         <v>112</v>
       </c>
       <c r="E34" s="12"/>
-      <c r="F34" s="56"/>
+      <c r="F34" s="51"/>
       <c r="G34" s="14"/>
       <c r="H34" s="20"/>
       <c r="I34" s="24"/>
     </row>
     <row r="35" spans="1:9" ht="20" customHeight="1">
-      <c r="A35" s="50"/>
+      <c r="A35" s="45"/>
       <c r="B35" s="11" t="s">
         <v>113</v>
       </c>
@@ -2760,13 +2839,13 @@
         <v>20</v>
       </c>
       <c r="E35" s="12"/>
-      <c r="F35" s="56"/>
+      <c r="F35" s="51"/>
       <c r="G35" s="14"/>
       <c r="H35" s="20"/>
       <c r="I35" s="24"/>
     </row>
     <row r="36" spans="1:9">
-      <c r="A36" s="50"/>
+      <c r="A36" s="45"/>
       <c r="B36" s="11" t="s">
         <v>114</v>
       </c>
@@ -2775,13 +2854,13 @@
         <v>20</v>
       </c>
       <c r="E36" s="12"/>
-      <c r="F36" s="56"/>
+      <c r="F36" s="51"/>
       <c r="G36" s="14"/>
       <c r="H36" s="20"/>
       <c r="I36" s="24"/>
     </row>
     <row r="37" spans="1:9" ht="20" customHeight="1">
-      <c r="A37" s="50"/>
+      <c r="A37" s="45"/>
       <c r="B37" s="11" t="s">
         <v>115</v>
       </c>
@@ -2790,13 +2869,13 @@
         <v>115</v>
       </c>
       <c r="E37" s="12"/>
-      <c r="F37" s="56"/>
+      <c r="F37" s="51"/>
       <c r="G37" s="14"/>
       <c r="H37" s="20"/>
       <c r="I37" s="24"/>
     </row>
     <row r="38" spans="1:9" ht="20" customHeight="1">
-      <c r="A38" s="51"/>
+      <c r="A38" s="46"/>
       <c r="B38" s="31" t="s">
         <v>116</v>
       </c>
@@ -2805,23 +2884,23 @@
         <v>117</v>
       </c>
       <c r="E38" s="12"/>
-      <c r="F38" s="57"/>
+      <c r="F38" s="52"/>
       <c r="G38" s="14"/>
       <c r="H38" s="20"/>
       <c r="I38" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="F1:I1"/>
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="A3:A20"/>
     <mergeCell ref="A21:A29"/>
     <mergeCell ref="A30:A38"/>
     <mergeCell ref="D21:D24"/>
     <mergeCell ref="F21:F29"/>
     <mergeCell ref="F30:F38"/>
-    <mergeCell ref="B1:C1"/>
-    <mergeCell ref="D1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="A3:A20"/>
   </mergeCells>
   <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2837,11 +2916,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -2931,11 +3010,59 @@
       </c>
       <c r="H3" s="3"/>
     </row>
+    <row r="4" spans="1:8" ht="37" customHeight="1">
+      <c r="A4" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D4" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E4" s="43" t="s">
+        <v>135</v>
+      </c>
+      <c r="F4" s="39" t="s">
+        <v>136</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3"/>
+    </row>
+    <row r="5" spans="1:8" ht="64" customHeight="1">
+      <c r="A5" s="40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D5" s="34" t="s">
+        <v>121</v>
+      </c>
+      <c r="E5" s="43" t="s">
+        <v>138</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="G5" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="H5" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:G2"/>
   <phoneticPr fontId="13" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D4:D1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1 D6:D1048576">
       <formula1>"已完成,未完成,进行中"</formula1>
     </dataValidation>
   </dataValidations>
